--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f678740a5a93c0b5/Desktop/Corporate-valuation-/Project/Work in progress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1990" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B291746D-71BE-455B-8B99-315E56F0C2D3}"/>
+  <xr:revisionPtr revIDLastSave="2150" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9535B054-7825-4E14-894F-A7C77139448B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="IS Trailing 12 months " sheetId="8" r:id="rId3"/>
     <sheet name="BS" sheetId="10" r:id="rId4"/>
     <sheet name="Analysis " sheetId="9" r:id="rId5"/>
-    <sheet name="FCFE Computation" sheetId="7" r:id="rId6"/>
-    <sheet name="CF S " sheetId="3" r:id="rId7"/>
+    <sheet name="Bottom up Beta" sheetId="11" r:id="rId6"/>
+    <sheet name="FCFE Computation" sheetId="7" r:id="rId7"/>
+    <sheet name="CF S " sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="541">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1584,6 +1585,96 @@
   </si>
   <si>
     <t xml:space="preserve">NET CAPEX  (detailed) </t>
+  </si>
+  <si>
+    <t>WE PROCEED WITH EBIT</t>
+  </si>
+  <si>
+    <t>Change %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted EBIT </t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj Unlev Beta </t>
+  </si>
+  <si>
+    <t>Utility (general)</t>
+  </si>
+  <si>
+    <t>Utility (water)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental and Waste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil/gas distribution </t>
+  </si>
+  <si>
+    <t>Investment &amp; Asset management</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Green and renewable energy (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Unlevered Beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom up unlevered beta computation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom up levered beta computation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlevered Beta </t>
+  </si>
+  <si>
+    <t>Debt to equity ratio (book value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt to equity ratio market value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marginal taxes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt (Bv) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt( Fair value) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total non current financial liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair value of bonds an bank debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non curr fin payables for rights of use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity pertaining to group </t>
+  </si>
+  <si>
+    <t>Equity (bv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity market </t>
+  </si>
+  <si>
+    <t>Market cap (at 31/12/20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levered Beta book value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levered Beta market value </t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2700,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2824,24 +2915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2874,9 +2947,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
@@ -2897,6 +2967,37 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -3777,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED367D94-1688-46C5-820A-0D435FF36E90}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A43" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3796,14 +3897,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="249" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="205"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="251"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="84" t="s">
@@ -6202,15 +6303,15 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="200" t="s">
+      <c r="A105" s="246" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="201"/>
-      <c r="C105" s="201"/>
-      <c r="D105" s="201"/>
-      <c r="E105" s="201"/>
-      <c r="F105" s="201"/>
-      <c r="G105" s="202"/>
+      <c r="B105" s="247"/>
+      <c r="C105" s="247"/>
+      <c r="D105" s="247"/>
+      <c r="E105" s="247"/>
+      <c r="F105" s="247"/>
+      <c r="G105" s="248"/>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6481,8 +6582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E372618-CC6C-4EA7-A7A1-B3CBE15674E2}">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7210,7 +7311,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="80" t="s">
         <v>204</v>
       </c>
@@ -7239,7 +7340,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>205</v>
       </c>
@@ -7263,7 +7364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>206</v>
       </c>
@@ -7287,7 +7388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="71" t="s">
         <v>207</v>
       </c>
@@ -7316,7 +7417,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="44"/>
       <c r="B37" s="37"/>
       <c r="C37" s="44"/>
@@ -7326,7 +7427,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="158"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="75" t="s">
         <v>276</v>
       </c>
@@ -7355,8 +7456,11 @@
         <f t="shared" si="15"/>
         <v>269</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>273</v>
       </c>
@@ -7384,7 +7488,7 @@
         <v>5.4663686242633611E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="44"/>
       <c r="B40" s="37" t="s">
         <v>10</v>
@@ -7396,7 +7500,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="158"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="75" t="s">
         <v>274</v>
       </c>
@@ -7426,7 +7530,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>273</v>
       </c>
@@ -7454,7 +7558,7 @@
         <v>4.3690306848201584E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>181</v>
       </c>
@@ -7478,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" s="37"/>
       <c r="C44" s="44"/>
@@ -7488,7 +7592,7 @@
       <c r="H44" s="37"/>
       <c r="I44" s="114"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="76" t="s">
         <v>97</v>
       </c>
@@ -7503,7 +7607,7 @@
       <c r="H45" s="37"/>
       <c r="I45" s="114"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>211</v>
       </c>
@@ -7517,7 +7621,7 @@
       <c r="H46" s="37"/>
       <c r="I46" s="114"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>208</v>
       </c>
@@ -7533,7 +7637,7 @@
       <c r="H47" s="37"/>
       <c r="I47" s="114"/>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>209</v>
       </c>
@@ -8610,7 +8714,9 @@
       <c r="E88" s="52">
         <v>2023</v>
       </c>
-      <c r="F88" s="2"/>
+      <c r="F88" s="256" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="151" t="s">
@@ -8624,7 +8730,7 @@
       <c r="E89" s="95">
         <v>323</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="254"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="151" t="s">
@@ -8638,7 +8744,7 @@
       <c r="E90" s="95">
         <v>323</v>
       </c>
-      <c r="F90" s="6"/>
+      <c r="F90" s="254"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="151" t="s">
@@ -8652,7 +8758,7 @@
       <c r="E91" s="95">
         <v>381</v>
       </c>
-      <c r="F91" s="6"/>
+      <c r="F91" s="254"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="151" t="s">
@@ -8666,7 +8772,7 @@
       <c r="E92" s="95">
         <v>518</v>
       </c>
-      <c r="F92" s="6"/>
+      <c r="F92" s="254"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="151" t="s">
@@ -8680,7 +8786,7 @@
       <c r="E93" s="95">
         <v>-14</v>
       </c>
-      <c r="F93" s="6"/>
+      <c r="F93" s="254"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="152" t="s">
@@ -8696,7 +8802,11 @@
         <f>SUM(E89:E93)</f>
         <v>1531</v>
       </c>
-      <c r="F94" s="6"/>
+      <c r="F94" s="255">
+        <f>(E94-C94)/C94</f>
+        <v>0.28439597315436244</v>
+      </c>
+      <c r="G94" s="253"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -8960,7 +9070,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9387,7 +9497,7 @@
   <dimension ref="A1:P192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9404,14 +9514,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="252" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="202"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="248"/>
     </row>
     <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9429,19 +9539,19 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="215" t="s">
         <v>497</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="205" t="s">
         <v>495</v>
       </c>
       <c r="C5" s="4"/>
@@ -9450,10 +9560,10 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="204" t="s">
         <v>494</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="205" t="s">
         <v>493</v>
       </c>
       <c r="C6" s="4">
@@ -9592,7 +9702,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="230"/>
+      <c r="H15" s="224"/>
       <c r="I15" t="s">
         <v>482</v>
       </c>
@@ -9638,7 +9748,7 @@
       <c r="F16" s="4">
         <v>5129</v>
       </c>
-      <c r="H16" s="229"/>
+      <c r="H16" s="223"/>
       <c r="I16" t="s">
         <v>480</v>
       </c>
@@ -9659,7 +9769,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="228"/>
+      <c r="H17" s="222"/>
       <c r="I17" t="s">
         <v>479</v>
       </c>
@@ -9684,7 +9794,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="227"/>
+      <c r="H18" s="221"/>
       <c r="I18" t="s">
         <v>477</v>
       </c>
@@ -9709,7 +9819,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="226"/>
+      <c r="H19" s="220"/>
       <c r="I19" t="s">
         <v>475</v>
       </c>
@@ -9734,13 +9844,13 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="225"/>
+      <c r="H20" s="219"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="204" t="s">
         <v>473</v>
       </c>
-      <c r="B21" s="211" t="s">
+      <c r="B21" s="205" t="s">
         <v>472</v>
       </c>
       <c r="C21" s="4"/>
@@ -9760,7 +9870,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="I22" s="224" t="s">
+      <c r="I22" s="218" t="s">
         <v>470</v>
       </c>
       <c r="J22">
@@ -9780,7 +9890,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="I23" s="224" t="s">
+      <c r="I23" s="218" t="s">
         <v>468</v>
       </c>
     </row>
@@ -9843,7 +9953,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="206" t="s">
+      <c r="A28" s="200" t="s">
         <v>464</v>
       </c>
       <c r="C28" s="4"/>
@@ -9852,10 +9962,10 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="215" t="s">
+      <c r="A29" s="209" t="s">
         <v>463</v>
       </c>
-      <c r="B29" s="211" t="s">
+      <c r="B29" s="205" t="s">
         <v>462</v>
       </c>
       <c r="C29" s="4">
@@ -9868,10 +9978,10 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="216" t="s">
+      <c r="A30" s="210" t="s">
         <v>461</v>
       </c>
-      <c r="B30" s="223" t="s">
+      <c r="B30" s="217" t="s">
         <v>457</v>
       </c>
       <c r="C30" s="4">
@@ -9884,7 +9994,7 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="207" t="s">
+      <c r="A31" s="201" t="s">
         <v>301</v>
       </c>
       <c r="C31" s="4">
@@ -9903,10 +10013,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="210" t="s">
+      <c r="A32" s="204" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="222" t="s">
+      <c r="B32" s="216" t="s">
         <v>460</v>
       </c>
       <c r="C32" s="4">
@@ -9926,10 +10036,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="210" t="s">
+      <c r="A33" s="204" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="205" t="s">
         <v>457</v>
       </c>
       <c r="C33" s="4"/>
@@ -9968,7 +10078,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="207" t="s">
+      <c r="A36" s="201" t="s">
         <v>301</v>
       </c>
       <c r="C36" s="4">
@@ -10017,7 +10127,7 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="210" t="s">
+      <c r="A39" s="204" t="s">
         <v>453</v>
       </c>
       <c r="C39" s="4"/>
@@ -10093,7 +10203,7 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="207" t="s">
+      <c r="A45" s="201" t="s">
         <v>448</v>
       </c>
       <c r="C45" s="4">
@@ -10108,7 +10218,7 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="207" t="s">
+      <c r="A46" s="201" t="s">
         <v>447</v>
       </c>
       <c r="C46" s="4">
@@ -10121,7 +10231,7 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="217" t="s">
+      <c r="A47" s="211" t="s">
         <v>301</v>
       </c>
       <c r="C47" s="4">
@@ -10140,7 +10250,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="210" t="s">
+      <c r="A48" s="204" t="s">
         <v>446</v>
       </c>
       <c r="C48" s="4"/>
@@ -10188,7 +10298,7 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="217" t="s">
+      <c r="A52" s="211" t="s">
         <v>301</v>
       </c>
       <c r="C52" s="4">
@@ -10207,7 +10317,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="210" t="s">
+      <c r="A53" s="204" t="s">
         <v>442</v>
       </c>
       <c r="C53" s="4"/>
@@ -10216,7 +10326,7 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="207" t="s">
+      <c r="A54" s="201" t="s">
         <v>369</v>
       </c>
       <c r="B54" t="s">
@@ -10232,10 +10342,10 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="207" t="s">
+      <c r="A55" s="201" t="s">
         <v>440</v>
       </c>
-      <c r="B55" s="211"/>
+      <c r="B55" s="205"/>
       <c r="C55" s="4">
         <v>196</v>
       </c>
@@ -10262,7 +10372,7 @@
       <c r="A57" t="s">
         <v>438</v>
       </c>
-      <c r="B57" s="211"/>
+      <c r="B57" s="205"/>
       <c r="C57" s="4">
         <v>39</v>
       </c>
@@ -10276,7 +10386,7 @@
       <c r="A58" t="s">
         <v>437</v>
       </c>
-      <c r="B58" s="211"/>
+      <c r="B58" s="205"/>
       <c r="C58" s="4">
         <v>1</v>
       </c>
@@ -10290,7 +10400,7 @@
       <c r="A59" t="s">
         <v>436</v>
       </c>
-      <c r="B59" s="211"/>
+      <c r="B59" s="205"/>
       <c r="C59" s="4">
         <v>14</v>
       </c>
@@ -10304,7 +10414,7 @@
       <c r="A60" t="s">
         <v>435</v>
       </c>
-      <c r="B60" s="211"/>
+      <c r="B60" s="205"/>
       <c r="C60" s="4">
         <v>23</v>
       </c>
@@ -10426,7 +10536,7 @@
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="217" t="s">
+      <c r="A70" s="211" t="s">
         <v>301</v>
       </c>
       <c r="C70" s="4">
@@ -10445,7 +10555,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="210" t="s">
+      <c r="A71" s="204" t="s">
         <v>425</v>
       </c>
       <c r="C71" s="4"/>
@@ -10489,7 +10599,7 @@
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="217" t="s">
+      <c r="A75" s="211" t="s">
         <v>301</v>
       </c>
       <c r="C75" s="4">
@@ -10508,10 +10618,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="210" t="s">
+      <c r="A76" s="204" t="s">
         <v>421</v>
       </c>
-      <c r="B76" s="211" t="s">
+      <c r="B76" s="205" t="s">
         <v>420</v>
       </c>
       <c r="C76" s="4">
@@ -10528,10 +10638,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="210" t="s">
+      <c r="A77" s="204" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="211" t="s">
+      <c r="B77" s="205" t="s">
         <v>418</v>
       </c>
       <c r="C77" s="4">
@@ -10572,7 +10682,7 @@
       <c r="A79" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="B79" s="211" t="s">
+      <c r="B79" s="205" t="s">
         <v>415</v>
       </c>
       <c r="C79" s="4">
@@ -10592,7 +10702,7 @@
       <c r="A80" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B80" s="214" t="s">
+      <c r="B80" s="208" t="s">
         <v>413</v>
       </c>
       <c r="C80" s="4">
@@ -10617,7 +10727,7 @@
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="221" t="s">
+      <c r="A82" s="215" t="s">
         <v>412</v>
       </c>
       <c r="C82" s="4"/>
@@ -10629,7 +10739,7 @@
       <c r="A83" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B83" s="211" t="s">
+      <c r="B83" s="205" t="s">
         <v>410</v>
       </c>
       <c r="C83" s="4"/>
@@ -10638,10 +10748,10 @@
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="210" t="s">
+      <c r="A84" s="204" t="s">
         <v>409</v>
       </c>
-      <c r="B84" s="211" t="s">
+      <c r="B84" s="205" t="s">
         <v>408</v>
       </c>
       <c r="C84" s="4">
@@ -10658,10 +10768,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="210" t="s">
+      <c r="A85" s="204" t="s">
         <v>407</v>
       </c>
-      <c r="B85" s="211" t="s">
+      <c r="B85" s="205" t="s">
         <v>406</v>
       </c>
       <c r="C85" s="4">
@@ -10678,10 +10788,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="210" t="s">
+      <c r="A86" s="204" t="s">
         <v>405</v>
       </c>
-      <c r="B86" s="211" t="s">
+      <c r="B86" s="205" t="s">
         <v>404</v>
       </c>
       <c r="C86" s="4">
@@ -10707,7 +10817,7 @@
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="220" t="s">
+      <c r="A88" s="214" t="s">
         <v>402</v>
       </c>
       <c r="C88" s="4">
@@ -10733,7 +10843,7 @@
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="207" t="s">
+      <c r="A90" s="201" t="s">
         <v>401</v>
       </c>
       <c r="C90" s="4">
@@ -10772,7 +10882,7 @@
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="207" t="s">
+      <c r="A93" s="201" t="s">
         <v>398</v>
       </c>
       <c r="C93" s="4">
@@ -10785,10 +10895,10 @@
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="210" t="s">
+      <c r="A94" s="204" t="s">
         <v>397</v>
       </c>
-      <c r="B94" s="211" t="s">
+      <c r="B94" s="205" t="s">
         <v>396</v>
       </c>
       <c r="C94" s="4">
@@ -10805,10 +10915,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="219" t="s">
+      <c r="A95" s="213" t="s">
         <v>395</v>
       </c>
-      <c r="B95" s="211" t="s">
+      <c r="B95" s="205" t="s">
         <v>394</v>
       </c>
       <c r="C95" s="4">
@@ -10827,10 +10937,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="210" t="s">
+      <c r="A96" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="211" t="s">
+      <c r="B96" s="205" t="s">
         <v>393</v>
       </c>
       <c r="C96" s="4">
@@ -10892,7 +11002,7 @@
       <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="210" t="s">
+      <c r="A101" s="204" t="s">
         <v>389</v>
       </c>
       <c r="C101" s="4"/>
@@ -10953,7 +11063,7 @@
       <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="217" t="s">
+      <c r="A106" s="211" t="s">
         <v>294</v>
       </c>
       <c r="C106" s="4">
@@ -10972,7 +11082,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="210" t="s">
+      <c r="A107" s="204" t="s">
         <v>386</v>
       </c>
       <c r="C107" s="4"/>
@@ -11007,7 +11117,7 @@
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="217" t="s">
+      <c r="A110" s="211" t="s">
         <v>294</v>
       </c>
       <c r="C110" s="4">
@@ -11026,7 +11136,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="210" t="s">
+      <c r="A111" s="204" t="s">
         <v>385</v>
       </c>
       <c r="C111" s="4"/>
@@ -11100,7 +11210,7 @@
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="217" t="s">
+      <c r="A117" s="211" t="s">
         <v>294</v>
       </c>
       <c r="C117" s="4">
@@ -11117,12 +11227,12 @@
       <c r="F117" s="4">
         <v>671</v>
       </c>
-      <c r="G117" s="218" t="s">
+      <c r="G117" s="212" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="210" t="s">
+      <c r="A118" s="204" t="s">
         <v>378</v>
       </c>
       <c r="C118" s="4"/>
@@ -11144,10 +11254,10 @@
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="216" t="s">
+      <c r="A120" s="210" t="s">
         <v>377</v>
       </c>
-      <c r="B120" s="211"/>
+      <c r="B120" s="205"/>
       <c r="C120" s="4">
         <v>9</v>
       </c>
@@ -11158,10 +11268,10 @@
       <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="217" t="s">
+      <c r="A121" s="211" t="s">
         <v>294</v>
       </c>
-      <c r="B121" s="211"/>
+      <c r="B121" s="205"/>
       <c r="C121" s="4">
         <f>SUM(C119:C120)</f>
         <v>149</v>
@@ -11178,7 +11288,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="207" t="s">
+      <c r="A122" s="201" t="s">
         <v>376</v>
       </c>
       <c r="C122" s="4">
@@ -11202,27 +11312,27 @@
       <c r="A123" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B123" s="211"/>
+      <c r="B123" s="205"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="210" t="s">
+      <c r="A124" s="204" t="s">
         <v>374</v>
       </c>
-      <c r="B124" s="211"/>
+      <c r="B124" s="205"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="215" t="s">
+      <c r="A125" s="209" t="s">
         <v>373</v>
       </c>
-      <c r="B125" s="211"/>
+      <c r="B125" s="205"/>
       <c r="C125" s="4">
         <v>3</v>
       </c>
@@ -11233,10 +11343,10 @@
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="216" t="s">
+      <c r="A126" s="210" t="s">
         <v>372</v>
       </c>
-      <c r="B126" s="211"/>
+      <c r="B126" s="205"/>
       <c r="C126" s="4">
         <v>1478</v>
       </c>
@@ -11247,10 +11357,10 @@
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="207" t="s">
+      <c r="A127" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="B127" s="211"/>
+      <c r="B127" s="205"/>
       <c r="C127" s="4">
         <f>SUM(C125:C126)</f>
         <v>1481</v>
@@ -11267,20 +11377,20 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="210" t="s">
+      <c r="A128" s="204" t="s">
         <v>371</v>
       </c>
-      <c r="B128" s="211"/>
+      <c r="B128" s="205"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="215" t="s">
+      <c r="A129" s="209" t="s">
         <v>370</v>
       </c>
-      <c r="B129" s="211"/>
+      <c r="B129" s="205"/>
       <c r="C129" s="4">
         <v>43</v>
       </c>
@@ -11294,7 +11404,7 @@
       <c r="A130" t="s">
         <v>369</v>
       </c>
-      <c r="B130" s="214"/>
+      <c r="B130" s="208"/>
       <c r="C130" s="4">
         <v>380</v>
       </c>
@@ -11334,7 +11444,7 @@
       <c r="A133" t="s">
         <v>366</v>
       </c>
-      <c r="B133" s="211"/>
+      <c r="B133" s="205"/>
       <c r="C133" s="4">
         <v>105</v>
       </c>
@@ -11348,7 +11458,7 @@
       <c r="A134" t="s">
         <v>365</v>
       </c>
-      <c r="B134" s="211"/>
+      <c r="B134" s="205"/>
       <c r="C134" s="4">
         <v>66</v>
       </c>
@@ -11362,7 +11472,7 @@
       <c r="A135" t="s">
         <v>364</v>
       </c>
-      <c r="B135" s="211"/>
+      <c r="B135" s="205"/>
       <c r="C135" s="4">
         <v>7</v>
       </c>
@@ -11376,7 +11486,7 @@
       <c r="A136" t="s">
         <v>363</v>
       </c>
-      <c r="B136" s="211"/>
+      <c r="B136" s="205"/>
       <c r="C136" s="4">
         <v>73</v>
       </c>
@@ -11390,7 +11500,7 @@
       <c r="A137" t="s">
         <v>362</v>
       </c>
-      <c r="B137" s="211"/>
+      <c r="B137" s="205"/>
       <c r="C137" s="4">
         <v>3</v>
       </c>
@@ -11404,7 +11514,7 @@
       <c r="A138" t="s">
         <v>361</v>
       </c>
-      <c r="B138" s="211"/>
+      <c r="B138" s="205"/>
       <c r="C138" s="4">
         <v>17</v>
       </c>
@@ -11418,7 +11528,7 @@
       <c r="A139" t="s">
         <v>360</v>
       </c>
-      <c r="B139" s="213"/>
+      <c r="B139" s="207"/>
       <c r="C139" s="4">
         <v>2</v>
       </c>
@@ -11432,7 +11542,7 @@
       <c r="A140" t="s">
         <v>359</v>
       </c>
-      <c r="B140" s="212"/>
+      <c r="B140" s="206"/>
       <c r="C140" s="4">
         <v>4</v>
       </c>
@@ -11446,7 +11556,7 @@
       <c r="A141" t="s">
         <v>358</v>
       </c>
-      <c r="B141" s="211"/>
+      <c r="B141" s="205"/>
       <c r="C141" s="4">
         <v>1</v>
       </c>
@@ -11460,7 +11570,7 @@
       <c r="A142" t="s">
         <v>357</v>
       </c>
-      <c r="B142" s="211"/>
+      <c r="B142" s="205"/>
       <c r="C142" s="4">
         <v>10</v>
       </c>
@@ -11474,7 +11584,7 @@
       <c r="A143" t="s">
         <v>356</v>
       </c>
-      <c r="B143" s="211"/>
+      <c r="B143" s="205"/>
       <c r="C143" s="4">
         <v>10</v>
       </c>
@@ -11567,7 +11677,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="210" t="s">
+      <c r="A150" s="204" t="s">
         <v>350</v>
       </c>
       <c r="C150" s="4"/>
@@ -11656,7 +11766,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="210" t="s">
+      <c r="A157" s="204" t="s">
         <v>344</v>
       </c>
       <c r="C157" s="4">
@@ -11694,7 +11804,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="207" t="s">
+      <c r="A159" s="201" t="s">
         <v>342</v>
       </c>
       <c r="C159" s="4">
@@ -11747,23 +11857,23 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="207"/>
+      <c r="A183" s="201"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="207"/>
+      <c r="A184" s="201"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="207"/>
+      <c r="A189" s="201"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="207"/>
+      <c r="A190" s="201"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="209"/>
-      <c r="B191" s="208"/>
+      <c r="A191" s="203"/>
+      <c r="B191" s="202"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="207"/>
+      <c r="A192" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11776,16 +11886,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="13.33203125" customWidth="1"/>
@@ -11798,7 +11908,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="226" t="s">
         <v>503</v>
       </c>
       <c r="B1" s="86"/>
@@ -11810,7 +11920,7 @@
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
-      <c r="J1" s="233" t="s">
+      <c r="J1" s="226" t="s">
         <v>505</v>
       </c>
       <c r="K1" s="86"/>
@@ -11818,63 +11928,63 @@
       <c r="M1" s="86"/>
       <c r="N1" s="86"/>
       <c r="O1" s="86"/>
-      <c r="P1" s="251"/>
+      <c r="P1" s="244"/>
       <c r="Q1" s="86"/>
       <c r="R1" s="86"/>
       <c r="S1" s="87"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="235"/>
-      <c r="B2" s="239" t="s">
+      <c r="A2" s="228"/>
+      <c r="B2" s="232" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="236">
+      <c r="C2" s="229">
         <v>43830</v>
       </c>
-      <c r="D2" s="236">
+      <c r="D2" s="229">
         <v>43465</v>
       </c>
       <c r="E2" s="35"/>
-      <c r="F2" s="241">
+      <c r="F2" s="234">
         <v>43100</v>
       </c>
-      <c r="G2" s="236">
+      <c r="G2" s="229">
         <v>42735</v>
       </c>
-      <c r="H2" s="242">
+      <c r="H2" s="235">
         <v>42369</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="K2" s="239" t="s">
+      <c r="J2" s="228"/>
+      <c r="K2" s="232" t="s">
         <v>509</v>
       </c>
-      <c r="L2" s="246" t="s">
+      <c r="L2" s="239" t="s">
         <v>507</v>
       </c>
-      <c r="M2" s="236">
+      <c r="M2" s="229">
         <v>43830</v>
       </c>
-      <c r="N2" s="236">
+      <c r="N2" s="229">
         <v>43922</v>
       </c>
-      <c r="O2" s="247">
+      <c r="O2" s="240">
         <v>43556</v>
       </c>
-      <c r="P2" s="252" t="s">
+      <c r="P2" s="245" t="s">
         <v>508</v>
       </c>
-      <c r="Q2" s="248">
+      <c r="Q2" s="241">
         <v>43465</v>
       </c>
-      <c r="R2" s="236">
+      <c r="R2" s="229">
         <v>43556</v>
       </c>
-      <c r="S2" s="242">
+      <c r="S2" s="235">
         <v>43191</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="227" t="s">
         <v>499</v>
       </c>
       <c r="B3" s="98">
@@ -11895,7 +12005,7 @@
         <v>1821</v>
       </c>
       <c r="H3" s="102"/>
-      <c r="J3" s="234" t="s">
+      <c r="J3" s="227" t="s">
         <v>499</v>
       </c>
       <c r="K3" s="98">
@@ -11903,7 +12013,7 @@
         <v>-201</v>
       </c>
       <c r="L3" s="98">
-        <f t="shared" ref="L3:L7" si="0" xml:space="preserve"> M3 - O3 + N3</f>
+        <f t="shared" ref="L3:L6" si="0" xml:space="preserve"> M3 - O3 + N3</f>
         <v>1831</v>
       </c>
       <c r="M3" s="98">
@@ -11912,14 +12022,14 @@
       <c r="N3" s="98">
         <v>2056</v>
       </c>
-      <c r="O3" s="244">
+      <c r="O3" s="237">
         <v>2077</v>
       </c>
       <c r="P3" s="102">
-        <f t="shared" ref="P3:P7" si="1">Q3+R3-S3</f>
+        <f t="shared" ref="P3:P6" si="1">Q3+R3-S3</f>
         <v>2032</v>
       </c>
-      <c r="Q3" s="249">
+      <c r="Q3" s="242">
         <v>1781</v>
       </c>
       <c r="R3" s="98">
@@ -11930,7 +12040,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="227" t="s">
         <v>500</v>
       </c>
       <c r="B4" s="98">
@@ -11951,7 +12061,7 @@
         <v>159</v>
       </c>
       <c r="H4" s="102"/>
-      <c r="J4" s="234" t="s">
+      <c r="J4" s="227" t="s">
         <v>506</v>
       </c>
       <c r="K4" s="98">
@@ -11968,14 +12078,14 @@
       <c r="N4" s="98">
         <v>104</v>
       </c>
-      <c r="O4" s="244">
+      <c r="O4" s="237">
         <v>119</v>
       </c>
       <c r="P4" s="102">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Q4" s="249">
+      <c r="Q4" s="242">
         <v>187</v>
       </c>
       <c r="R4" s="98">
@@ -11986,7 +12096,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="234"/>
+      <c r="A5" s="227"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
@@ -11994,7 +12104,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="98"/>
       <c r="H5" s="102"/>
-      <c r="J5" s="234"/>
+      <c r="J5" s="227"/>
       <c r="K5" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12002,14 +12112,14 @@
       <c r="L5" s="98"/>
       <c r="M5" s="98"/>
       <c r="N5" s="98"/>
-      <c r="O5" s="244"/>
+      <c r="O5" s="237"/>
       <c r="P5" s="102"/>
-      <c r="Q5" s="249"/>
+      <c r="Q5" s="242"/>
       <c r="R5" s="98"/>
       <c r="S5" s="102"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="234" t="s">
+      <c r="A6" s="227" t="s">
         <v>501</v>
       </c>
       <c r="B6" s="98">
@@ -12030,7 +12140,7 @@
         <v>1384</v>
       </c>
       <c r="H6" s="102"/>
-      <c r="J6" s="234" t="s">
+      <c r="J6" s="227" t="s">
         <v>501</v>
       </c>
       <c r="K6" s="98">
@@ -12047,14 +12157,14 @@
       <c r="N6" s="98">
         <v>1323</v>
       </c>
-      <c r="O6" s="244">
+      <c r="O6" s="237">
         <v>1321</v>
       </c>
       <c r="P6" s="102">
         <f t="shared" si="1"/>
         <v>1584</v>
       </c>
-      <c r="Q6" s="249">
+      <c r="Q6" s="242">
         <v>1413</v>
       </c>
       <c r="R6" s="98">
@@ -12065,7 +12175,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
+      <c r="A7" s="227"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
@@ -12073,195 +12183,354 @@
       <c r="F7" s="35"/>
       <c r="G7" s="98"/>
       <c r="H7" s="102"/>
-      <c r="J7" s="234"/>
+      <c r="J7" s="227"/>
       <c r="K7" s="98"/>
       <c r="L7" s="98"/>
       <c r="M7" s="98"/>
       <c r="N7" s="98"/>
-      <c r="O7" s="244"/>
+      <c r="O7" s="237"/>
       <c r="P7" s="102"/>
-      <c r="Q7" s="249"/>
+      <c r="Q7" s="242"/>
       <c r="R7" s="98"/>
       <c r="S7" s="102"/>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="237" t="s">
+      <c r="A8" s="230" t="s">
         <v>502</v>
       </c>
-      <c r="B8" s="240">
+      <c r="B8" s="233">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C8" s="238">
+      <c r="C8" s="231">
         <f>(SUM(C3,C4) -C6)</f>
         <v>555</v>
       </c>
-      <c r="D8" s="238">
+      <c r="D8" s="231">
         <f>SUM(D3,D4,-D6)</f>
         <v>555</v>
       </c>
       <c r="E8" s="103"/>
-      <c r="F8" s="238">
+      <c r="F8" s="231">
         <f t="shared" ref="F8:G8" si="4">SUM(F3,F4,-F6)</f>
         <v>437</v>
       </c>
-      <c r="G8" s="238">
+      <c r="G8" s="231">
         <f t="shared" si="4"/>
         <v>596</v>
       </c>
-      <c r="H8" s="243"/>
-      <c r="J8" s="237" t="s">
+      <c r="H8" s="236"/>
+      <c r="J8" s="230" t="s">
         <v>502</v>
       </c>
-      <c r="K8" s="240">
+      <c r="K8" s="233">
         <f t="shared" si="3"/>
         <v>-157</v>
       </c>
-      <c r="L8" s="238">
+      <c r="L8" s="231">
         <f xml:space="preserve"> M8 - O8 + N8</f>
         <v>517</v>
       </c>
-      <c r="M8" s="238">
+      <c r="M8" s="231">
         <f>(SUM(M3,M4) -M6)</f>
         <v>555</v>
       </c>
-      <c r="N8" s="238">
+      <c r="N8" s="231">
         <f t="shared" ref="N8:S8" si="5">(SUM(N3,N4) -N6)</f>
         <v>837</v>
       </c>
-      <c r="O8" s="245">
+      <c r="O8" s="238">
         <f t="shared" si="5"/>
         <v>875</v>
       </c>
-      <c r="P8" s="243">
+      <c r="P8" s="236">
         <f>Q8+R8-S8</f>
         <v>674</v>
       </c>
-      <c r="Q8" s="250">
+      <c r="Q8" s="243">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="R8" s="238">
+      <c r="R8" s="231">
         <f t="shared" si="5"/>
         <v>875</v>
       </c>
-      <c r="S8" s="243">
+      <c r="S8" s="236">
         <f t="shared" si="5"/>
         <v>756</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="210" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="257" t="s">
+        <v>513</v>
+      </c>
+      <c r="B12" s="53">
+        <v>43830</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="2">
+        <v>547</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="2">
+        <v>687</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="204" t="s">
         <v>510</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="95"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="95"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="95"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="95"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="95"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="95"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="95"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="95"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="95"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="152"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="151"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="151"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="95"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="151"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="95"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="151"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="95"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="151"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="95"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="151"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="95"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="151"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="95"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="151"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="95"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="151"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="95"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="152"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12270,6 +12539,301 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71461D4C-151F-470B-8443-1903C71474D2}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="200" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3">
+        <v>1544.2650000000001</v>
+      </c>
+      <c r="D3">
+        <f>(C3/C10)</f>
+        <v>0.2116415785149395</v>
+      </c>
+      <c r="E3">
+        <v>0.41</v>
+      </c>
+      <c r="F3">
+        <f>PRODUCT(D3,E3)</f>
+        <v>8.6773047191125191E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4">
+        <v>49.814999999999998</v>
+      </c>
+      <c r="D4">
+        <f>(C4/C10)</f>
+        <v>6.8271476940303059E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
+        <v>1.9798728312687888E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="258">
+        <v>514.755</v>
+      </c>
+      <c r="D5">
+        <f>(C5/C10)</f>
+        <v>7.0547192838313164E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.2328315702987895E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6">
+        <v>903</v>
+      </c>
+      <c r="D6">
+        <f>(C6/C10)</f>
+        <v>0.12375618523957375</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9.9004948191659004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8">
+        <v>1228.77</v>
+      </c>
+      <c r="D8">
+        <f>(C8/C10)</f>
+        <v>0.16840297645274754</v>
+      </c>
+      <c r="E8">
+        <v>0.74</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.12461820257503319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9">
+        <v>3056</v>
+      </c>
+      <c r="D9">
+        <f>(C9/C10)</f>
+        <v>0.41882491926039578</v>
+      </c>
+      <c r="E9">
+        <v>0.91</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.38113067652696014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
+        <v>7296.6049999999996</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D3:D9)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="259">
+        <f t="shared" ref="E10:G10" si="1">SUM(F3:F9)</f>
+        <v>0.73583506301903423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="260" t="s">
+        <v>536</v>
+      </c>
+      <c r="J14" s="261" t="s">
+        <v>535</v>
+      </c>
+      <c r="K14" s="262">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="200" t="s">
+        <v>525</v>
+      </c>
+      <c r="I15" s="260" t="s">
+        <v>537</v>
+      </c>
+      <c r="J15" s="261" t="s">
+        <v>538</v>
+      </c>
+      <c r="K15" s="262">
+        <f>PRODUCT(1.67,3109.183856)</f>
+        <v>5192.33703952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>526</v>
+      </c>
+      <c r="B16">
+        <f>F10</f>
+        <v>0.73583506301903423</v>
+      </c>
+      <c r="I16" s="260" t="s">
+        <v>530</v>
+      </c>
+      <c r="J16" s="261" t="s">
+        <v>532</v>
+      </c>
+      <c r="K16" s="262">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17">
+        <f>K16/K14</f>
+        <v>1.0054727880814838</v>
+      </c>
+      <c r="I17" s="150" t="s">
+        <v>531</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="94">
+        <f>(SUM(K18:K20))</f>
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18">
+        <f>K17/K15</f>
+        <v>0.7229885062212823</v>
+      </c>
+      <c r="I18" s="151"/>
+      <c r="J18" s="98" t="s">
+        <v>533</v>
+      </c>
+      <c r="K18" s="102">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>529</v>
+      </c>
+      <c r="B19">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="I19" s="151"/>
+      <c r="J19" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20">
+        <f>PRODUCT(B16,(1+PRODUCT((1-B19),B17)))</f>
+        <v>1.2692756604663571</v>
+      </c>
+      <c r="I20" s="152"/>
+      <c r="J20" s="103" t="s">
+        <v>534</v>
+      </c>
+      <c r="K20" s="104">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21">
+        <f>PRODUCT(B16,(1+PRODUCT((1-B19),B18)))</f>
+        <v>1.1194072742989813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1BB66B-C038-41A3-A377-50E94E5A5614}">
   <dimension ref="A2:X12"/>
   <sheetViews>
@@ -12626,7 +13190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A099D8-29D0-45EA-B373-6125C660EC5A}">
   <dimension ref="A1:H67"/>
   <sheetViews>
@@ -12644,14 +13208,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="246" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="202"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="248"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2150" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9535B054-7825-4E14-894F-A7C77139448B}"/>
+  <xr:revisionPtr revIDLastSave="2266" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE286CCA-F883-4488-AA2E-B8D6909396D2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="559">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1676,15 +1676,72 @@
   <si>
     <t xml:space="preserve">Levered Beta market value </t>
   </si>
+  <si>
+    <t xml:space="preserve">WACC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk free rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression (levered Beta) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate </t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Risk free rate</t>
+  </si>
+  <si>
+    <t>Spread on debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom up levered beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wacc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk free rate  (German bunds 10 Y spot rates, daily obs over past two years) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default spread on debt (A2A BBB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stable market risk premium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country risk premium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity risk premium </t>
+  </si>
+  <si>
+    <t>Market cap (at 31/12/19)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2700,7 +2757,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2967,6 +3024,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2988,16 +3064,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -3878,8 +3944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED367D94-1688-46C5-820A-0D435FF36E90}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A28" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3897,14 +3963,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="268" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="270"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="84" t="s">
@@ -6303,15 +6369,15 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="246" t="s">
+      <c r="A105" s="265" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="247"/>
-      <c r="C105" s="247"/>
-      <c r="D105" s="247"/>
-      <c r="E105" s="247"/>
-      <c r="F105" s="247"/>
-      <c r="G105" s="248"/>
+      <c r="B105" s="266"/>
+      <c r="C105" s="266"/>
+      <c r="D105" s="266"/>
+      <c r="E105" s="266"/>
+      <c r="F105" s="266"/>
+      <c r="G105" s="267"/>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6582,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E372618-CC6C-4EA7-A7A1-B3CBE15674E2}">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -8714,7 +8780,7 @@
       <c r="E88" s="52">
         <v>2023</v>
       </c>
-      <c r="F88" s="256" t="s">
+      <c r="F88" s="249" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8730,7 +8796,7 @@
       <c r="E89" s="95">
         <v>323</v>
       </c>
-      <c r="F89" s="254"/>
+      <c r="F89" s="247"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="151" t="s">
@@ -8744,7 +8810,7 @@
       <c r="E90" s="95">
         <v>323</v>
       </c>
-      <c r="F90" s="254"/>
+      <c r="F90" s="247"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="151" t="s">
@@ -8758,7 +8824,7 @@
       <c r="E91" s="95">
         <v>381</v>
       </c>
-      <c r="F91" s="254"/>
+      <c r="F91" s="247"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="151" t="s">
@@ -8772,7 +8838,7 @@
       <c r="E92" s="95">
         <v>518</v>
       </c>
-      <c r="F92" s="254"/>
+      <c r="F92" s="247"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="151" t="s">
@@ -8786,7 +8852,7 @@
       <c r="E93" s="95">
         <v>-14</v>
       </c>
-      <c r="F93" s="254"/>
+      <c r="F93" s="247"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="152" t="s">
@@ -8802,11 +8868,11 @@
         <f>SUM(E89:E93)</f>
         <v>1531</v>
       </c>
-      <c r="F94" s="255">
+      <c r="F94" s="248">
         <f>(E94-C94)/C94</f>
         <v>0.28439597315436244</v>
       </c>
-      <c r="G94" s="253"/>
+      <c r="G94" s="246"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -9496,8 +9562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EC174A-C960-43D4-8F13-E2C71765B1E2}">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9514,14 +9580,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="271" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="248"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="267"/>
     </row>
     <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11886,17 +11952,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.109375" hidden="1" customWidth="1"/>
@@ -12272,7 +12340,7 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="250" t="s">
         <v>513</v>
       </c>
       <c r="B12" s="53">
@@ -12532,9 +12600,309 @@
       <c r="G39" s="96"/>
       <c r="H39" s="97"/>
     </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="150" t="s">
+        <v>541</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="94"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="151"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="95"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="151" t="s">
+        <v>553</v>
+      </c>
+      <c r="B68" s="257">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="257">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="151" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="258">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="258">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="263" t="s">
+        <v>543</v>
+      </c>
+      <c r="B70" s="264">
+        <f>SUM(B68:B69)</f>
+        <v>1.4279188539047052E-2</v>
+      </c>
+      <c r="C70" s="259"/>
+      <c r="D70" s="259" t="s">
+        <v>543</v>
+      </c>
+      <c r="E70" s="259"/>
+      <c r="F70" s="259">
+        <f t="shared" ref="F70" si="6">SUM(F68:F69)</f>
+        <v>1.4279188539047052E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="151"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="95"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="151" t="s">
+        <v>542</v>
+      </c>
+      <c r="B72" s="257">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="257">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="151" t="s">
+        <v>555</v>
+      </c>
+      <c r="B73" s="260">
+        <v>2.99661426831043E-2</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="260">
+        <v>2.99661426831043E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="151" t="s">
+        <v>556</v>
+      </c>
+      <c r="B74" s="256">
+        <v>4.0205104717786398E-2</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6">
+        <v>4.02051047177864</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="151" t="s">
+        <v>557</v>
+      </c>
+      <c r="B75" s="261">
+        <f>SUM(B73:B74)</f>
+        <v>7.0171247400890702E-2</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="95"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="151" t="s">
+        <v>544</v>
+      </c>
+      <c r="B76" s="262">
+        <v>0.87311649000000002</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="250" t="s">
+        <v>550</v>
+      </c>
+      <c r="E76" s="250"/>
+      <c r="F76" s="95"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="151" t="s">
+        <v>545</v>
+      </c>
+      <c r="B77" s="259">
+        <f>B72+PRODUCT(B76,B75)</f>
+        <v>6.0546861768634365E-2</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="95"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="151"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="95"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="151" t="s">
+        <v>546</v>
+      </c>
+      <c r="B79" s="258">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="95"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="151"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="95"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="151" t="s">
+        <v>547</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="95"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="151"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="95"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="152"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="97"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="253" t="s">
+        <v>536</v>
+      </c>
+      <c r="B87" s="254" t="s">
+        <v>535</v>
+      </c>
+      <c r="C87" s="255">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="253" t="s">
+        <v>537</v>
+      </c>
+      <c r="B88" s="254" t="s">
+        <v>538</v>
+      </c>
+      <c r="C88" s="255">
+        <f>PRODUCT(1.67,3109.183856)</f>
+        <v>5192.33703952</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="253" t="s">
+        <v>530</v>
+      </c>
+      <c r="B89" s="254" t="s">
+        <v>532</v>
+      </c>
+      <c r="C89" s="255">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="150" t="s">
+        <v>531</v>
+      </c>
+      <c r="B90" s="93"/>
+      <c r="C90" s="94">
+        <f>(SUM(C91:C93))</f>
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="151"/>
+      <c r="B91" s="98" t="s">
+        <v>533</v>
+      </c>
+      <c r="C91" s="102">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="151"/>
+      <c r="B92" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="152"/>
+      <c r="B93" s="103" t="s">
+        <v>534</v>
+      </c>
+      <c r="C93" s="104">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12543,7 +12911,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12578,18 +12946,19 @@
         <v>516</v>
       </c>
       <c r="C3">
-        <v>1544.2650000000001</v>
+        <f xml:space="preserve"> SUM(1544.265 +3056-764)</f>
+        <v>3836.2650000000003</v>
       </c>
       <c r="D3">
         <f>(C3/C10)</f>
-        <v>0.2116415785149395</v>
+        <v>0.52576026796023623</v>
       </c>
       <c r="E3">
         <v>0.41</v>
       </c>
       <c r="F3">
         <f>PRODUCT(D3,E3)</f>
-        <v>8.6773047191125191E-2</v>
+        <v>0.21556170986369683</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -12601,33 +12970,34 @@
       </c>
       <c r="D4">
         <f>(C4/C10)</f>
-        <v>6.8271476940303059E-3</v>
+        <v>6.8271476940303041E-3</v>
       </c>
       <c r="E4">
         <v>0.28999999999999998</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
-        <v>1.9798728312687888E-3</v>
+        <v>1.9798728312687879E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>522</v>
       </c>
-      <c r="C5" s="258">
-        <v>514.755</v>
+      <c r="C5" s="251">
+        <f>514.755 + 764</f>
+        <v>1278.7550000000001</v>
       </c>
       <c r="D5">
         <f>(C5/C10)</f>
-        <v>7.0547192838313164E-2</v>
+        <v>0.17525342265341209</v>
       </c>
       <c r="E5">
         <v>0.6</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>4.2328315702987895E-2</v>
+        <v>0.10515205359204725</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -12639,14 +13009,14 @@
       </c>
       <c r="D6">
         <f>(C6/C10)</f>
-        <v>0.12375618523957375</v>
+        <v>0.12375618523957373</v>
       </c>
       <c r="E6">
         <v>0.8</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>9.9004948191659004E-2</v>
+        <v>9.900494819165899E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -12664,33 +13034,30 @@
       </c>
       <c r="D8">
         <f>(C8/C10)</f>
-        <v>0.16840297645274754</v>
+        <v>0.16840297645274752</v>
       </c>
       <c r="E8">
         <v>0.74</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.12461820257503319</v>
+        <v>0.12461820257503316</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>520</v>
       </c>
-      <c r="C9">
-        <v>3056</v>
-      </c>
       <c r="D9">
         <f>(C9/C10)</f>
-        <v>0.41882491926039578</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.91</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.38113067652696014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -12699,26 +13066,26 @@
       </c>
       <c r="C10">
         <f>SUM(C3:C9)</f>
-        <v>7296.6049999999996</v>
+        <v>7296.6050000000014</v>
       </c>
       <c r="D10">
         <f>SUM(D3:D9)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="259">
-        <f t="shared" ref="E10:G10" si="1">SUM(F3:F9)</f>
-        <v>0.73583506301903423</v>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F10" s="252">
+        <f t="shared" ref="F10" si="1">SUM(F3:F9)</f>
+        <v>0.54631678705370501</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="260" t="s">
+      <c r="I14" s="253" t="s">
         <v>536</v>
       </c>
-      <c r="J14" s="261" t="s">
+      <c r="J14" s="254" t="s">
         <v>535</v>
       </c>
-      <c r="K14" s="262">
+      <c r="K14" s="255">
         <v>3289</v>
       </c>
     </row>
@@ -12726,13 +13093,13 @@
       <c r="A15" s="200" t="s">
         <v>525</v>
       </c>
-      <c r="I15" s="260" t="s">
+      <c r="I15" s="253" t="s">
         <v>537</v>
       </c>
-      <c r="J15" s="261" t="s">
-        <v>538</v>
-      </c>
-      <c r="K15" s="262">
+      <c r="J15" s="254" t="s">
+        <v>558</v>
+      </c>
+      <c r="K15" s="255">
         <f>PRODUCT(1.67,3109.183856)</f>
         <v>5192.33703952</v>
       </c>
@@ -12743,15 +13110,15 @@
       </c>
       <c r="B16">
         <f>F10</f>
-        <v>0.73583506301903423</v>
-      </c>
-      <c r="I16" s="260" t="s">
+        <v>0.54631678705370501</v>
+      </c>
+      <c r="I16" s="253" t="s">
         <v>530</v>
       </c>
-      <c r="J16" s="261" t="s">
+      <c r="J16" s="254" t="s">
         <v>532</v>
       </c>
-      <c r="K16" s="262">
+      <c r="K16" s="255">
         <v>3307</v>
       </c>
     </row>
@@ -12809,7 +13176,7 @@
       </c>
       <c r="B20">
         <f>PRODUCT(B16,(1+PRODUCT((1-B19),B17)))</f>
-        <v>1.2692756604663571</v>
+        <v>0.94236689111607663</v>
       </c>
       <c r="I20" s="152"/>
       <c r="J20" s="103" t="s">
@@ -12825,7 +13192,7 @@
       </c>
       <c r="B21">
         <f>PRODUCT(B16,(1+PRODUCT((1-B19),B18)))</f>
-        <v>1.1194072742989813</v>
+        <v>0.83109791342430983</v>
       </c>
     </row>
   </sheetData>
@@ -13208,14 +13575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="265" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="248"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="267"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2266" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE286CCA-F883-4488-AA2E-B8D6909396D2}"/>
+  <xr:revisionPtr revIDLastSave="2286" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CDCBBD1-DCC9-4D87-9B8C-4F6A633C9B82}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="567">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1729,6 +1729,30 @@
   </si>
   <si>
     <t>Market cap (at 31/12/19)</t>
+  </si>
+  <si>
+    <t>Outstanding bonds</t>
+  </si>
+  <si>
+    <t>Bond2022</t>
+  </si>
+  <si>
+    <t>Bond2025</t>
+  </si>
+  <si>
+    <t>bond2027</t>
+  </si>
+  <si>
+    <t>bond2029</t>
+  </si>
+  <si>
+    <t>Yield to maturity</t>
+  </si>
+  <si>
+    <t>Residual Coup</t>
+  </si>
+  <si>
+    <t>Average Kd</t>
   </si>
 </sst>
 </file>
@@ -2757,7 +2781,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3064,6 +3088,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -11954,8 +11979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11965,11 +11990,13 @@
     <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="12" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0.88671875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="13.44140625" hidden="1" customWidth="1"/>
@@ -12600,8 +12627,8 @@
       <c r="G39" s="96"/>
       <c r="H39" s="97"/>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="150" t="s">
         <v>541</v>
       </c>
@@ -12610,16 +12637,38 @@
       <c r="D66" s="93"/>
       <c r="E66" s="93"/>
       <c r="F66" s="94"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I66" s="98"/>
+      <c r="J66" s="98" t="s">
+        <v>564</v>
+      </c>
+      <c r="K66" s="98" t="s">
+        <v>565</v>
+      </c>
+      <c r="L66" s="98" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="151"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="95"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I67" s="98" t="s">
+        <v>560</v>
+      </c>
+      <c r="J67" s="98">
+        <v>3.6880000000000003E-2</v>
+      </c>
+      <c r="K67" s="98">
+        <v>2</v>
+      </c>
+      <c r="L67" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="151" t="s">
         <v>553</v>
       </c>
@@ -12634,8 +12683,20 @@
       <c r="F68" s="257">
         <v>-7.2081146095294803E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I68" s="98" t="s">
+        <v>561</v>
+      </c>
+      <c r="J68" s="98">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="K68" s="98">
+        <v>5</v>
+      </c>
+      <c r="L68" s="98">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="151" t="s">
         <v>554</v>
       </c>
@@ -12650,8 +12711,20 @@
       <c r="F69" s="258">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I69" s="98" t="s">
+        <v>562</v>
+      </c>
+      <c r="J69" s="98">
+        <v>1.7680000000000001E-2</v>
+      </c>
+      <c r="K69" s="98">
+        <v>8</v>
+      </c>
+      <c r="L69" s="98">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="263" t="s">
         <v>543</v>
       </c>
@@ -12668,8 +12741,20 @@
         <f t="shared" ref="F70" si="6">SUM(F68:F69)</f>
         <v>1.4279188539047052E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I70" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="J70" s="98">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="K70" s="98">
+        <v>10</v>
+      </c>
+      <c r="L70" s="98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="151"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -12677,7 +12762,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="95"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="151" t="s">
         <v>542</v>
       </c>
@@ -12692,8 +12777,15 @@
       <c r="F72" s="257">
         <v>-7.2081146095294803E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I72" s="200" t="s">
+        <v>566</v>
+      </c>
+      <c r="J72" s="272">
+        <f xml:space="preserve"> (PRODUCT(J67:L67) + PRODUCT(J68:L68) + PRODUCT(J69:L69) + PRODUCT(J70:L70)) / (PRODUCT(K67:L67) + PRODUCT(K68:L68) + PRODUCT(K69:L69) + PRODUCT(K70:L70))</f>
+        <v>1.8253033707865168E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="151" t="s">
         <v>555</v>
       </c>
@@ -12709,7 +12801,7 @@
         <v>2.99661426831043E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="151" t="s">
         <v>556</v>
       </c>
@@ -12725,7 +12817,7 @@
         <v>4.02051047177864</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="151" t="s">
         <v>557</v>
       </c>
@@ -12740,7 +12832,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="95"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="151" t="s">
         <v>544</v>
       </c>
@@ -12754,7 +12846,7 @@
       <c r="E76" s="250"/>
       <c r="F76" s="95"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="151" t="s">
         <v>545</v>
       </c>
@@ -12769,7 +12861,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="95"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="151"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -12777,7 +12869,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="95"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="151" t="s">
         <v>546</v>
       </c>
@@ -12791,7 +12883,7 @@
       <c r="E79" s="6"/>
       <c r="F79" s="95"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="151"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -12910,7 +13002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71461D4C-151F-470B-8443-1903C71474D2}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2286" documentId="13_ncr:1_{2EE670BD-D333-445C-855D-43AC8679340C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4CDCBBD1-DCC9-4D87-9B8C-4F6A633C9B82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS" sheetId="2" r:id="rId1"/>
     <sheet name="Reorganized IS" sheetId="6" r:id="rId2"/>
     <sheet name="IS Trailing 12 months " sheetId="8" r:id="rId3"/>
-    <sheet name="BS" sheetId="10" r:id="rId4"/>
-    <sheet name="Analysis " sheetId="9" r:id="rId5"/>
-    <sheet name="Bottom up Beta" sheetId="11" r:id="rId6"/>
-    <sheet name="FCFE Computation" sheetId="7" r:id="rId7"/>
+    <sheet name="Analysis " sheetId="9" r:id="rId4"/>
+    <sheet name="Bottom up Beta" sheetId="11" r:id="rId5"/>
+    <sheet name="FCFE Computation" sheetId="7" r:id="rId6"/>
+    <sheet name="Forecasts " sheetId="12" r:id="rId7"/>
     <sheet name="CF S " sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="422">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1074,483 +1074,9 @@
     <t xml:space="preserve">Change </t>
   </si>
   <si>
-    <t>TOTAL EQUITY AND LIABILITIES</t>
-  </si>
-  <si>
-    <t>LIABILITIES DIRECTLY ASSOCIATED WITH NON-CURRENT ASSETS HELD FOR SALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTOTAL LIABILITIES  </t>
-  </si>
-  <si>
-    <t>TOTAL CURRENT LIABILITIES</t>
-  </si>
-  <si>
-    <t>Tax liabilities</t>
-  </si>
-  <si>
     <t>Payables to other lenders</t>
   </si>
   <si>
-    <t>Financial payables to related parties</t>
-  </si>
-  <si>
-    <t>Current financial payables for rights of use</t>
-  </si>
-  <si>
-    <t>Payables to banks</t>
-  </si>
-  <si>
-    <t>Non-convertible bonds</t>
-  </si>
-  <si>
-    <t>Current financial liabilities</t>
-  </si>
-  <si>
-    <t>Sundry payables</t>
-  </si>
-  <si>
-    <t>Payables for RAI fee</t>
-  </si>
-  <si>
-    <t>Payables for environmental compensation</t>
-  </si>
-  <si>
-    <t>Payables for excise compensation</t>
-  </si>
-  <si>
-    <t>Payables to insurance companies</t>
-  </si>
-  <si>
-    <t>Payables for collections to be allocated</t>
-  </si>
-  <si>
-    <t>Payables for auxiliary services</t>
-  </si>
-  <si>
-    <t>Payables for the purchase of equity investments</t>
-  </si>
-  <si>
-    <t>Payables to third-party shareholders</t>
-  </si>
-  <si>
-    <t>Payables to customers for interest on security deposits</t>
-  </si>
-  <si>
-    <t>Payables to customers for work to be performed</t>
-  </si>
-  <si>
-    <t>Payables for A.T.O.</t>
-  </si>
-  <si>
-    <t>Payables for energy tariff components</t>
-  </si>
-  <si>
-    <t>Payables for tax transparency</t>
-  </si>
-  <si>
-    <t>Tax payables</t>
-  </si>
-  <si>
-    <t>Payables to Cassa per i Servizi Energetici e Ambientali</t>
-  </si>
-  <si>
-    <t>Payables to personnel</t>
-  </si>
-  <si>
-    <t>Other current liabilities of which:</t>
-  </si>
-  <si>
-    <t>Current derivatives (commodity derivatives)</t>
-  </si>
-  <si>
-    <t>Payables to pension and social security institutions</t>
-  </si>
-  <si>
-    <t>Other current liabilities</t>
-  </si>
-  <si>
-    <t>Payables to suppliers</t>
-  </si>
-  <si>
-    <t>Advances</t>
-  </si>
-  <si>
-    <t>Trade payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURRENT LIABILITIES </t>
-  </si>
-  <si>
-    <t>TOTAL NON-CURRENT LIABILITIES</t>
-  </si>
-  <si>
-    <t>Non-current derivatives</t>
-  </si>
-  <si>
-    <t>Other non-current liabilities</t>
-  </si>
-  <si>
-    <t>SHOULD BE 642 IIN 2018</t>
-  </si>
-  <si>
-    <t>Other risk provisions</t>
-  </si>
-  <si>
-    <t>Personnel lawsuits and disputes provisions</t>
-  </si>
-  <si>
-    <t>Tax provisions</t>
-  </si>
-  <si>
-    <t>Landfill closing and post-closing expense provisions</t>
-  </si>
-  <si>
-    <t>Decommissioning provisions</t>
-  </si>
-  <si>
-    <t>Provisions for risks, charges and liabilities for landfills</t>
-  </si>
-  <si>
-    <t>Employee benefits</t>
-  </si>
-  <si>
-    <t>Employee leaving entitlement (TFR)</t>
-  </si>
-  <si>
-    <t>Non-current financial payables for rights of use</t>
-  </si>
-  <si>
-    <t>Non-current financial liabilities</t>
-  </si>
-  <si>
-    <t>Non-current liabilities</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>TOTAL EQUITY</t>
-  </si>
-  <si>
-    <t>Interessi di minoranze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrimonio netto di gruppo </t>
-  </si>
-  <si>
-    <t>Equity pertaining to the Group</t>
-  </si>
-  <si>
-    <t>Risultato d’esercizio</t>
-  </si>
-  <si>
-    <t>Result of the year</t>
-  </si>
-  <si>
-    <t>IAS 19 Revised reserve - Employee Benefits</t>
-  </si>
-  <si>
-    <t>Tax effect</t>
-  </si>
-  <si>
-    <t>Change in the IAS 19 Revised reserve - Employee Benefits</t>
-  </si>
-  <si>
-    <t>Cash flow hedge reserves</t>
-  </si>
-  <si>
-    <t>Change in the fair value of cash flow hedge derivatives and fair value bonds</t>
-  </si>
-  <si>
-    <t>of which:</t>
-  </si>
-  <si>
-    <t>Riserve</t>
-  </si>
-  <si>
-    <t>Reserves:</t>
-  </si>
-  <si>
-    <t>(Azioni proprie)</t>
-  </si>
-  <si>
-    <t>(Treasury shares)</t>
-  </si>
-  <si>
-    <t>Capitale sociale</t>
-  </si>
-  <si>
-    <t>Share capital</t>
-  </si>
-  <si>
-    <t>PATRIMONIO NETTO</t>
-  </si>
-  <si>
-    <t>EQUITY</t>
-  </si>
-  <si>
-    <t>EQUITY AND LIABILITIES:</t>
-  </si>
-  <si>
-    <t>TOTALE ATTIVO</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>ATTIVITÀ NON CORRENTI DESTINATE ALLA VENDITA</t>
-  </si>
-  <si>
-    <t>NON-CURRENT ASSETS HELD FOR SALE</t>
-  </si>
-  <si>
-    <t>TOTAL CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>Disponibilità liquide e mezzi equivalenti</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Attività per imposte correnti</t>
-  </si>
-  <si>
-    <t>Current tax assets</t>
-  </si>
-  <si>
-    <t>Other financial assets from assets held for sale</t>
-  </si>
-  <si>
-    <t>Other financial assets from related parties</t>
-  </si>
-  <si>
-    <t>Other financial assets</t>
-  </si>
-  <si>
-    <t>Current financial assets</t>
-  </si>
-  <si>
-    <t>other sundry receivables</t>
-  </si>
-  <si>
-    <t>sundry receivables for hedging</t>
-  </si>
-  <si>
-    <t>receivables for RAI fee</t>
-  </si>
-  <si>
-    <t>receivables for security deposits</t>
-  </si>
-  <si>
-    <t>receivables for COSAP advances</t>
-  </si>
-  <si>
-    <t>receivables for damage compensation</t>
-  </si>
-  <si>
-    <t>stamp office</t>
-  </si>
-  <si>
-    <t>receivables from social security entities</t>
-  </si>
-  <si>
-    <t>receivables from Ergosud</t>
-  </si>
-  <si>
-    <t>receivables related to future years</t>
-  </si>
-  <si>
-    <t>tax receivables</t>
-  </si>
-  <si>
-    <t>receivables from employees</t>
-  </si>
-  <si>
-    <t>advances to suppliers</t>
-  </si>
-  <si>
-    <t>receivables from Cassa per i Servizi Energetici e Ambientali</t>
-  </si>
-  <si>
-    <t>Other current assets of which:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBT/ EQUITY RATIO (p.7) </t>
-  </si>
-  <si>
-    <t>Other current assets:</t>
-  </si>
-  <si>
-    <t>(Bad debts provision)</t>
-  </si>
-  <si>
-    <t>Trade receivables - invoices to be issued</t>
-  </si>
-  <si>
-    <t>Trade receivables - invoices issued</t>
-  </si>
-  <si>
-    <t>Trade receivables:</t>
-  </si>
-  <si>
-    <t>Third-party fuel</t>
-  </si>
-  <si>
-    <t>Raw and ancillary materials and consumables</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Total material</t>
-  </si>
-  <si>
-    <t>Material obsolescence provision</t>
-  </si>
-  <si>
-    <t>Materials</t>
-  </si>
-  <si>
-    <t>Inventories:</t>
-  </si>
-  <si>
-    <t>CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>TOTAL NON-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>Other non-current assets</t>
-  </si>
-  <si>
-    <t>Altre attività finanziarie non correnti</t>
-  </si>
-  <si>
-    <t>Other non-current financial assets:</t>
-  </si>
-  <si>
-    <t>see slide 69 of conslidato 19</t>
-  </si>
-  <si>
-    <t>Attività per imposte anticipate</t>
-  </si>
-  <si>
-    <t>Other non-current financial assets</t>
-  </si>
-  <si>
-    <t>Partecipazioni valutate col metodo del Patrimonio netto</t>
-  </si>
-  <si>
-    <t>Shareholdings carried according to equity method:</t>
-  </si>
-  <si>
-    <t>Shareholdings and other non-current financial assets:</t>
-  </si>
-  <si>
-    <t>Other intangible assets</t>
-  </si>
-  <si>
-    <t>Assets in progress</t>
-  </si>
-  <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>TOTAL FUNDS INVESTED (finanging perspective)</t>
-  </si>
-  <si>
-    <t>Concessions, licences, trademarks and similar rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL FUNDS INVESTED </t>
-  </si>
-  <si>
-    <t>Industrial patents and intellectual property rights</t>
-  </si>
-  <si>
-    <t>Immobilizzazioni immateriali</t>
-  </si>
-  <si>
-    <t>Intangible assets:</t>
-  </si>
-  <si>
-    <t>Write-downs</t>
-  </si>
-  <si>
-    <t>for non operating  current asset</t>
-  </si>
-  <si>
-    <t>Accumulated amortization</t>
-  </si>
-  <si>
-    <t>for operating current liabilities</t>
-  </si>
-  <si>
-    <t>Historical cost</t>
-  </si>
-  <si>
-    <t>for operating current asset</t>
-  </si>
-  <si>
-    <t>equity and equivalent</t>
-  </si>
-  <si>
-    <t>changing WC 19/18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working capital </t>
-  </si>
-  <si>
-    <t>Assets for rights of use</t>
-  </si>
-  <si>
-    <t>Leasehold improvements</t>
-  </si>
-  <si>
-    <t>R&amp;D?</t>
-  </si>
-  <si>
-    <t>Construction in progress and advances</t>
-  </si>
-  <si>
-    <t>Landfills</t>
-  </si>
-  <si>
-    <t>Other assets</t>
-  </si>
-  <si>
-    <t>Industrial and commercial equipment</t>
-  </si>
-  <si>
-    <t>Plant and machinery</t>
-  </si>
-  <si>
-    <t>Buildings</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Immobilizzazioni materiali</t>
-  </si>
-  <si>
-    <t>Tangible assets:</t>
-  </si>
-  <si>
-    <t>ATTIVITÀ NON CORRENTI</t>
-  </si>
-  <si>
-    <t>NON-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t>ASSET:</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trade receivables </t>
   </si>
   <si>
@@ -1569,9 +1095,6 @@
     <t xml:space="preserve">Historical </t>
   </si>
   <si>
-    <t xml:space="preserve">Trailing change in working capital: Delta WC  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Inventories </t>
   </si>
   <si>
@@ -1753,6 +1276,48 @@
   </si>
   <si>
     <t>Average Kd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailing change in working capital: Delta WC (simple formulation)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in working capital: Delta WC  (detailed formulation) </t>
+  </si>
+  <si>
+    <t>At 31/12/19</t>
+  </si>
+  <si>
+    <t>Current value</t>
+  </si>
+  <si>
+    <t>Current values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating cash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other current assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current tax assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash balances </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash  </t>
+  </si>
+  <si>
+    <t>Average delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other current liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating liabilities </t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1413,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1929,30 +1494,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2693,15 +2240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2781,7 +2319,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2997,64 +2535,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -3067,6 +2573,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3085,10 +2592,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -3701,6 +3210,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BF0421-B2C8-4B84-AF66-01535742F738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8923020" y="4526280"/>
+          <a:ext cx="914400" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>This is a proxy for operating cash </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3988,14 +3555,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="243" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="270"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="245"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="84" t="s">
@@ -6394,15 +5961,15 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="265" t="s">
+      <c r="A105" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="266"/>
-      <c r="C105" s="266"/>
-      <c r="D105" s="266"/>
-      <c r="E105" s="266"/>
-      <c r="F105" s="266"/>
-      <c r="G105" s="267"/>
+      <c r="B105" s="241"/>
+      <c r="C105" s="241"/>
+      <c r="D105" s="241"/>
+      <c r="E105" s="241"/>
+      <c r="F105" s="241"/>
+      <c r="G105" s="242"/>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6673,7 +6240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E372618-CC6C-4EA7-A7A1-B3CBE15674E2}">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -7548,7 +7115,7 @@
         <v>269</v>
       </c>
       <c r="J38" t="s">
-        <v>511</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -8805,8 +8372,8 @@
       <c r="E88" s="52">
         <v>2023</v>
       </c>
-      <c r="F88" s="249" t="s">
-        <v>512</v>
+      <c r="F88" s="225" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -8821,7 +8388,7 @@
       <c r="E89" s="95">
         <v>323</v>
       </c>
-      <c r="F89" s="247"/>
+      <c r="F89" s="223"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="151" t="s">
@@ -8835,7 +8402,7 @@
       <c r="E90" s="95">
         <v>323</v>
       </c>
-      <c r="F90" s="247"/>
+      <c r="F90" s="223"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="151" t="s">
@@ -8849,7 +8416,7 @@
       <c r="E91" s="95">
         <v>381</v>
       </c>
-      <c r="F91" s="247"/>
+      <c r="F91" s="223"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="151" t="s">
@@ -8863,7 +8430,7 @@
       <c r="E92" s="95">
         <v>518</v>
       </c>
-      <c r="F92" s="247"/>
+      <c r="F92" s="223"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="151" t="s">
@@ -8877,7 +8444,7 @@
       <c r="E93" s="95">
         <v>-14</v>
       </c>
-      <c r="F93" s="247"/>
+      <c r="F93" s="223"/>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="152" t="s">
@@ -8893,11 +8460,11 @@
         <f>SUM(E89:E93)</f>
         <v>1531</v>
       </c>
-      <c r="F94" s="248">
+      <c r="F94" s="224">
         <f>(E94-C94)/C94</f>
         <v>0.28439597315436244</v>
       </c>
-      <c r="G94" s="246"/>
+      <c r="G94" s="222"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -9584,2403 +9151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EC174A-C960-43D4-8F13-E2C71765B1E2}">
-  <dimension ref="A1:P192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
+  <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="56.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52" hidden="1" customWidth="1"/>
-    <col min="3" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="271" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="267"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1">
-        <v>43830</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43465</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="215" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="B5" s="205" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="204" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="205" t="s">
-        <v>493</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4869</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C7" s="4">
-        <v>112</v>
-      </c>
-      <c r="D7" s="4">
-        <v>116</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C8" s="4">
-        <v>594</v>
-      </c>
-      <c r="D8" s="4">
-        <v>590</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>490</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3591</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3460</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>488</v>
-      </c>
-      <c r="C11" s="4">
-        <v>127</v>
-      </c>
-      <c r="D11" s="4">
-        <v>120</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>487</v>
-      </c>
-      <c r="C12" s="4">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4">
-        <v>66</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>486</v>
-      </c>
-      <c r="C13" s="4">
-        <v>131</v>
-      </c>
-      <c r="D13" s="4">
-        <v>85</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="I13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>484</v>
-      </c>
-      <c r="C14" s="4">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4">
-        <v>91</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="J14" s="1">
-        <v>43830</v>
-      </c>
-      <c r="K14" s="1">
-        <v>43465</v>
-      </c>
-      <c r="L14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="M14" s="1">
-        <v>42735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>483</v>
-      </c>
-      <c r="C15" s="4">
-        <v>140</v>
-      </c>
-      <c r="D15" s="4">
-        <v>54</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="224"/>
-      <c r="I15" t="s">
-        <v>482</v>
-      </c>
-      <c r="J15">
-        <f>(C121+C123+D126+D127)-(C185-C188)</f>
-        <v>2972</v>
-      </c>
-      <c r="K15">
-        <f>(D121+D123+C126+C127)-(D185+D188)</f>
-        <v>3107</v>
-      </c>
-      <c r="L15">
-        <f>E128-E189</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>F128-F189</f>
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>481</v>
-      </c>
-      <c r="P15">
-        <f>J15-K15</f>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="4">
-        <f>SUM(C7:C15)</f>
-        <v>4869</v>
-      </c>
-      <c r="D16" s="4">
-        <f>SUM(D7:D15)</f>
-        <v>4620</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4606</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5129</v>
-      </c>
-      <c r="H16" s="223"/>
-      <c r="I16" t="s">
-        <v>480</v>
-      </c>
-      <c r="J16">
-        <f>C58+D140</f>
-        <v>5</v>
-      </c>
-      <c r="K16" t="e">
-        <f>#REF!+D58</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="222"/>
-      <c r="I17" t="s">
-        <v>479</v>
-      </c>
-      <c r="J17">
-        <f>C121+C123+C124+D127</f>
-        <v>1562</v>
-      </c>
-      <c r="K17">
-        <f>D121+D123+D124+C127</f>
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>478</v>
-      </c>
-      <c r="C18" s="4">
-        <v>11065</v>
-      </c>
-      <c r="D18" s="4">
-        <v>10520</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="221"/>
-      <c r="I18" t="s">
-        <v>477</v>
-      </c>
-      <c r="J18">
-        <f>C185+C186+C188</f>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f>D185+D186+D188</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>476</v>
-      </c>
-      <c r="C19" s="4">
-        <v>-5376</v>
-      </c>
-      <c r="D19" s="4">
-        <v>-5045</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="220"/>
-      <c r="I19" t="s">
-        <v>475</v>
-      </c>
-      <c r="J19">
-        <f>C60-C58+D125</f>
-        <v>25</v>
-      </c>
-      <c r="K19">
-        <f>D57+D59+C125</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" s="4">
-        <v>-820</v>
-      </c>
-      <c r="D20" s="4">
-        <v>-855</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="219"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="204" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="205" t="s">
-        <v>472</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="4">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="218" t="s">
-        <v>470</v>
-      </c>
-      <c r="J22">
-        <f>(J17-J18)+J19</f>
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>469</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1616</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1502</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="218" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>467</v>
-      </c>
-      <c r="C24" s="4">
-        <v>374</v>
-      </c>
-      <c r="D24" s="4">
-        <v>444</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>466</v>
-      </c>
-      <c r="C25" s="4">
-        <v>62</v>
-      </c>
-      <c r="D25" s="4">
-        <v>44</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="4">
-        <v>296</v>
-      </c>
-      <c r="D26" s="4">
-        <v>288</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C27" s="4">
-        <f>SUM(C22:C26)</f>
-        <v>2379</v>
-      </c>
-      <c r="D27" s="4">
-        <f>SUM(D22:D26)</f>
-        <v>2302</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1863</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="200" t="s">
-        <v>464</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="209" t="s">
-        <v>463</v>
-      </c>
-      <c r="B29" s="205" t="s">
-        <v>462</v>
-      </c>
-      <c r="C29" s="4">
-        <v>38</v>
-      </c>
-      <c r="D29" s="4">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="210" t="s">
-        <v>461</v>
-      </c>
-      <c r="B30" s="217" t="s">
-        <v>457</v>
-      </c>
-      <c r="C30" s="4">
-        <v>27</v>
-      </c>
-      <c r="D30" s="4">
-        <v>29</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="201" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="4">
-        <f>SUM(C29:C30)</f>
-        <v>65</v>
-      </c>
-      <c r="D31" s="4">
-        <f>SUM(D29:D30)</f>
-        <v>45</v>
-      </c>
-      <c r="E31" s="4">
-        <v>63</v>
-      </c>
-      <c r="F31" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="204" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="216" t="s">
-        <v>460</v>
-      </c>
-      <c r="C32" s="4">
-        <v>277</v>
-      </c>
-      <c r="D32" s="4">
-        <v>264</v>
-      </c>
-      <c r="E32" s="4">
-        <v>301</v>
-      </c>
-      <c r="F32" s="4">
-        <v>341</v>
-      </c>
-      <c r="G32" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="204" t="s">
-        <v>458</v>
-      </c>
-      <c r="B33" s="205" t="s">
-        <v>457</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>377</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>456</v>
-      </c>
-      <c r="C35" s="4">
-        <v>23</v>
-      </c>
-      <c r="D35" s="4">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4">
-        <v>8</v>
-      </c>
-      <c r="F35" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="201" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" s="4">
-        <f>SUM(C34:C35)</f>
-        <v>25</v>
-      </c>
-      <c r="D36" s="4">
-        <f>SUM(D34:D35)</f>
-        <v>20</v>
-      </c>
-      <c r="E36" s="4">
-        <v>44</v>
-      </c>
-      <c r="F36" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C37" s="4">
-        <f>SUM(C16,C27,C31,C32,C36)</f>
-        <v>7615</v>
-      </c>
-      <c r="D37" s="4">
-        <f>SUM(D16,D27,D31,D32,D36)</f>
-        <v>7251</v>
-      </c>
-      <c r="E37" s="4">
-        <f>SUM(E16,E27,E31,E32,E36,E35)</f>
-        <v>6885</v>
-      </c>
-      <c r="F37" s="4">
-        <f>SUM(F16,F27,F31,F32,F36,F35)</f>
-        <v>7322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="204" t="s">
-        <v>453</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>452</v>
-      </c>
-      <c r="C40" s="4">
-        <v>75</v>
-      </c>
-      <c r="D40" s="4">
-        <v>69</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>451</v>
-      </c>
-      <c r="C41" s="4">
-        <v>-18</v>
-      </c>
-      <c r="D41" s="4">
-        <v>-17</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C42" s="4">
-        <f>SUM(C40:C41)</f>
-        <v>57</v>
-      </c>
-      <c r="D42" s="4">
-        <f>SUM(D40:D41)</f>
-        <v>52</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>449</v>
-      </c>
-      <c r="C43" s="4">
-        <v>112</v>
-      </c>
-      <c r="D43" s="4">
-        <v>129</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>293</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="201" t="s">
-        <v>448</v>
-      </c>
-      <c r="C45" s="4">
-        <f>SUM(C43,C42,C44)</f>
-        <v>173</v>
-      </c>
-      <c r="D45" s="4">
-        <f>SUM(D43,D42,D44)</f>
-        <v>183</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="201" t="s">
-        <v>447</v>
-      </c>
-      <c r="C46" s="4">
-        <v>11</v>
-      </c>
-      <c r="D46" s="4">
-        <v>4</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="211" t="s">
-        <v>301</v>
-      </c>
-      <c r="C47" s="4">
-        <f>SUM(C45,C46)</f>
-        <v>184</v>
-      </c>
-      <c r="D47" s="4">
-        <f>SUM(D45,D46)</f>
-        <v>187</v>
-      </c>
-      <c r="E47" s="4">
-        <v>147</v>
-      </c>
-      <c r="F47" s="4">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="204" t="s">
-        <v>446</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>445</v>
-      </c>
-      <c r="C49" s="4">
-        <v>756</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1030</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>444</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1204</v>
-      </c>
-      <c r="D50" s="4">
-        <v>914</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>443</v>
-      </c>
-      <c r="C51" s="4">
-        <v>-108</v>
-      </c>
-      <c r="D51" s="4">
-        <v>-163</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="211" t="s">
-        <v>301</v>
-      </c>
-      <c r="C52" s="4">
-        <f>SUM(C49:C51)</f>
-        <v>1852</v>
-      </c>
-      <c r="D52" s="4">
-        <f>SUM(D49:D51)</f>
-        <v>1781</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1671</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="204" t="s">
-        <v>442</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="201" t="s">
-        <v>369</v>
-      </c>
-      <c r="B54" t="s">
-        <v>441</v>
-      </c>
-      <c r="C54" s="4">
-        <v>371</v>
-      </c>
-      <c r="D54" s="4">
-        <v>163</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="201" t="s">
-        <v>440</v>
-      </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="4">
-        <v>196</v>
-      </c>
-      <c r="D55" s="4">
-        <v>150</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>439</v>
-      </c>
-      <c r="C56" s="4">
-        <v>69</v>
-      </c>
-      <c r="D56" s="4">
-        <v>46</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>438</v>
-      </c>
-      <c r="B57" s="205"/>
-      <c r="C57" s="4">
-        <v>39</v>
-      </c>
-      <c r="D57" s="4">
-        <v>35</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>437</v>
-      </c>
-      <c r="B58" s="205"/>
-      <c r="C58" s="4">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>436</v>
-      </c>
-      <c r="B59" s="205"/>
-      <c r="C59" s="4">
-        <v>14</v>
-      </c>
-      <c r="D59" s="4">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>435</v>
-      </c>
-      <c r="B60" s="205"/>
-      <c r="C60" s="4">
-        <v>23</v>
-      </c>
-      <c r="D60" s="4">
-        <v>22</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>434</v>
-      </c>
-      <c r="C61" s="4">
-        <v>2</v>
-      </c>
-      <c r="D61" s="4">
-        <v>2</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>433</v>
-      </c>
-      <c r="C62" s="4">
-        <v>3</v>
-      </c>
-      <c r="D62" s="4">
-        <v>3</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>432</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>431</v>
-      </c>
-      <c r="C64" s="4">
-        <v>2</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>430</v>
-      </c>
-      <c r="C65" s="4">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>429</v>
-      </c>
-      <c r="C66" s="4">
-        <v>2</v>
-      </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>428</v>
-      </c>
-      <c r="C67" s="4">
-        <v>3</v>
-      </c>
-      <c r="D67" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>427</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>426</v>
-      </c>
-      <c r="C69" s="4">
-        <v>35</v>
-      </c>
-      <c r="D69" s="4">
-        <v>25</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="211" t="s">
-        <v>301</v>
-      </c>
-      <c r="C70" s="4">
-        <f>SUM(C54,C55)</f>
-        <v>567</v>
-      </c>
-      <c r="D70" s="4">
-        <f>SUM(D54,D55)</f>
-        <v>313</v>
-      </c>
-      <c r="E70" s="4">
-        <v>216</v>
-      </c>
-      <c r="F70" s="4">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="204" t="s">
-        <v>425</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>424</v>
-      </c>
-      <c r="C72" s="4">
-        <v>9</v>
-      </c>
-      <c r="D72" s="4">
-        <v>15</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>423</v>
-      </c>
-      <c r="C73" s="4">
-        <v>1</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>422</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="211" t="s">
-        <v>301</v>
-      </c>
-      <c r="C75" s="4">
-        <f>SUM(C72:C73)</f>
-        <v>10</v>
-      </c>
-      <c r="D75" s="4">
-        <f>SUM(D72:D73)</f>
-        <v>16</v>
-      </c>
-      <c r="E75" s="4">
-        <v>8</v>
-      </c>
-      <c r="F75" s="4">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="204" t="s">
-        <v>421</v>
-      </c>
-      <c r="B76" s="205" t="s">
-        <v>420</v>
-      </c>
-      <c r="C76" s="4">
-        <v>63</v>
-      </c>
-      <c r="D76" s="4">
-        <v>49</v>
-      </c>
-      <c r="E76" s="4">
-        <v>107</v>
-      </c>
-      <c r="F76" s="4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="204" t="s">
-        <v>419</v>
-      </c>
-      <c r="B77" s="205" t="s">
-        <v>418</v>
-      </c>
-      <c r="C77" s="4">
-        <v>434</v>
-      </c>
-      <c r="D77" s="4">
-        <v>624</v>
-      </c>
-      <c r="E77" s="4">
-        <v>691</v>
-      </c>
-      <c r="F77" s="4">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="C78" s="4">
-        <f>SUM(C77,C76,C75,C70,C52,C47,)</f>
-        <v>3110</v>
-      </c>
-      <c r="D78" s="4">
-        <f>SUM(D77,D76,D75,D70,D52,D47,)</f>
-        <v>2970</v>
-      </c>
-      <c r="E78" s="4">
-        <f>SUM(E77,E76,E75,E70,E52,E47,)</f>
-        <v>2840</v>
-      </c>
-      <c r="F78" s="4">
-        <f>SUM(F77,F76,F75,F70,F52,F47,)</f>
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="B79" s="205" t="s">
-        <v>415</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0</v>
-      </c>
-      <c r="D79" s="4">
-        <v>112</v>
-      </c>
-      <c r="E79" s="4">
-        <v>224</v>
-      </c>
-      <c r="F79" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="B80" s="208" t="s">
-        <v>413</v>
-      </c>
-      <c r="C80" s="4">
-        <f>SUM(C79,C78,C37)</f>
-        <v>10725</v>
-      </c>
-      <c r="D80" s="4">
-        <f>SUM(D79,D78,D37)</f>
-        <v>10333</v>
-      </c>
-      <c r="E80" s="4">
-        <v>9949</v>
-      </c>
-      <c r="F80" s="4">
-        <v>10387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="215" t="s">
-        <v>412</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="B83" s="205" t="s">
-        <v>410</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="204" t="s">
-        <v>409</v>
-      </c>
-      <c r="B84" s="205" t="s">
-        <v>408</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1629</v>
-      </c>
-      <c r="D84" s="4">
-        <v>1629</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1629</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="204" t="s">
-        <v>407</v>
-      </c>
-      <c r="B85" s="205" t="s">
-        <v>406</v>
-      </c>
-      <c r="C85" s="4">
-        <v>-54</v>
-      </c>
-      <c r="D85" s="4">
-        <v>-54</v>
-      </c>
-      <c r="E85" s="4">
-        <v>-54</v>
-      </c>
-      <c r="F85" s="4">
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="204" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" s="205" t="s">
-        <v>404</v>
-      </c>
-      <c r="C86" s="4">
-        <v>1325</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1216</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1010</v>
-      </c>
-      <c r="F86" s="4">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>403</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="214" t="s">
-        <v>402</v>
-      </c>
-      <c r="C88" s="4">
-        <v>-41</v>
-      </c>
-      <c r="D88" s="4">
-        <v>-9</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>399</v>
-      </c>
-      <c r="C89" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" s="4">
-        <v>2</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="201" t="s">
-        <v>401</v>
-      </c>
-      <c r="C90" s="4">
-        <v>-30</v>
-      </c>
-      <c r="D90" s="4">
-        <v>-7</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>400</v>
-      </c>
-      <c r="C91" s="4">
-        <v>-77</v>
-      </c>
-      <c r="D91" s="4">
-        <v>-70</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>399</v>
-      </c>
-      <c r="C92" s="4">
-        <v>20</v>
-      </c>
-      <c r="D92" s="4">
-        <v>18</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="201" t="s">
-        <v>398</v>
-      </c>
-      <c r="C93" s="4">
-        <v>-57</v>
-      </c>
-      <c r="D93" s="4">
-        <v>-52</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="204" t="s">
-        <v>397</v>
-      </c>
-      <c r="B94" s="205" t="s">
-        <v>396</v>
-      </c>
-      <c r="C94" s="4">
-        <v>389</v>
-      </c>
-      <c r="D94" s="4">
-        <v>344</v>
-      </c>
-      <c r="E94" s="4">
-        <v>293</v>
-      </c>
-      <c r="F94" s="4">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="213" t="s">
-        <v>395</v>
-      </c>
-      <c r="B95" s="205" t="s">
-        <v>394</v>
-      </c>
-      <c r="C95" s="4">
-        <f>SUM(C84,C85,C86,C94,)</f>
-        <v>3289</v>
-      </c>
-      <c r="D95" s="4">
-        <f>SUM(D84,D85,D86,D94,)</f>
-        <v>3135</v>
-      </c>
-      <c r="E95" s="4">
-        <v>2878</v>
-      </c>
-      <c r="F95" s="4">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="204" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="205" t="s">
-        <v>393</v>
-      </c>
-      <c r="C96" s="4">
-        <v>362</v>
-      </c>
-      <c r="D96" s="4">
-        <v>388</v>
-      </c>
-      <c r="E96" s="4">
-        <v>135</v>
-      </c>
-      <c r="F96" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="C97" s="4">
-        <f>SUM(C96,C95)</f>
-        <v>3651</v>
-      </c>
-      <c r="D97" s="4">
-        <f>SUM(D96,D95)</f>
-        <v>3523</v>
-      </c>
-      <c r="E97" s="4">
-        <f>SUM(E96,E95)</f>
-        <v>3013</v>
-      </c>
-      <c r="F97" s="4">
-        <f>SUM(F96,F95)</f>
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="204" t="s">
-        <v>389</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>349</v>
-      </c>
-      <c r="C102" s="4">
-        <v>2550</v>
-      </c>
-      <c r="D102" s="4">
-        <v>2180</v>
-      </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>348</v>
-      </c>
-      <c r="C103" s="4">
-        <v>638</v>
-      </c>
-      <c r="D103" s="4">
-        <v>755</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>388</v>
-      </c>
-      <c r="C104" s="4">
-        <v>117</v>
-      </c>
-      <c r="D104" s="4">
-        <v>46</v>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>345</v>
-      </c>
-      <c r="C105" s="4">
-        <v>2</v>
-      </c>
-      <c r="D105" s="4">
-        <v>3</v>
-      </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="211" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="4">
-        <f>SUM(C102:C105)</f>
-        <v>3307</v>
-      </c>
-      <c r="D106" s="4">
-        <f>SUM(D102:D105)</f>
-        <v>2984</v>
-      </c>
-      <c r="E106" s="4">
-        <v>3501</v>
-      </c>
-      <c r="F106" s="4">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="204" t="s">
-        <v>386</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>387</v>
-      </c>
-      <c r="C108" s="4">
-        <v>159</v>
-      </c>
-      <c r="D108" s="4">
-        <v>165</v>
-      </c>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>386</v>
-      </c>
-      <c r="C109" s="4">
-        <v>148</v>
-      </c>
-      <c r="D109" s="4">
-        <v>149</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="211" t="s">
-        <v>294</v>
-      </c>
-      <c r="C110" s="4">
-        <f>SUM(C108:C109)</f>
-        <v>307</v>
-      </c>
-      <c r="D110" s="4">
-        <f>SUM(D108:D109)</f>
-        <v>314</v>
-      </c>
-      <c r="E110" s="4">
-        <v>319</v>
-      </c>
-      <c r="F110" s="4">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="204" t="s">
-        <v>385</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>384</v>
-      </c>
-      <c r="C112" s="4">
-        <v>264</v>
-      </c>
-      <c r="D112" s="4">
-        <v>238</v>
-      </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>383</v>
-      </c>
-      <c r="C113" s="4">
-        <v>196</v>
-      </c>
-      <c r="D113" s="4">
-        <v>169</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>382</v>
-      </c>
-      <c r="C114" s="4">
-        <v>36</v>
-      </c>
-      <c r="D114" s="4">
-        <v>34</v>
-      </c>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>381</v>
-      </c>
-      <c r="C115" s="4">
-        <v>42</v>
-      </c>
-      <c r="D115" s="4">
-        <v>56</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>380</v>
-      </c>
-      <c r="C116" s="4">
-        <v>138</v>
-      </c>
-      <c r="D116" s="4">
-        <v>118</v>
-      </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="211" t="s">
-        <v>294</v>
-      </c>
-      <c r="C117" s="4">
-        <f>SUM(C112:C116)</f>
-        <v>676</v>
-      </c>
-      <c r="D117" s="4">
-        <f>SUM(D112:D116)</f>
-        <v>615</v>
-      </c>
-      <c r="E117">
-        <v>625</v>
-      </c>
-      <c r="F117" s="4">
-        <v>671</v>
-      </c>
-      <c r="G117" s="212" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="204" t="s">
-        <v>378</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>378</v>
-      </c>
-      <c r="C119" s="4">
-        <v>140</v>
-      </c>
-      <c r="D119" s="4">
-        <v>134</v>
-      </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="210" t="s">
-        <v>377</v>
-      </c>
-      <c r="B120" s="205"/>
-      <c r="C120" s="4">
-        <v>9</v>
-      </c>
-      <c r="D120" s="4">
-        <v>14</v>
-      </c>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="211" t="s">
-        <v>294</v>
-      </c>
-      <c r="B121" s="205"/>
-      <c r="C121" s="4">
-        <f>SUM(C119:C120)</f>
-        <v>149</v>
-      </c>
-      <c r="D121" s="4">
-        <f>SUM(D119:D120)</f>
-        <v>148</v>
-      </c>
-      <c r="E121" s="4">
-        <v>148</v>
-      </c>
-      <c r="F121" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="201" t="s">
-        <v>376</v>
-      </c>
-      <c r="C122" s="4">
-        <f>SUM(C121,C117,C110,C106)</f>
-        <v>4439</v>
-      </c>
-      <c r="D122" s="4">
-        <f>SUM(D121,D117,D110,D106)</f>
-        <v>4061</v>
-      </c>
-      <c r="E122" s="4">
-        <f>SUM(E121,E117,E110,E106)</f>
-        <v>4593</v>
-      </c>
-      <c r="F122" s="4">
-        <f>SUM(F121,F117,F110,F106)</f>
-        <v>4581</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B123" s="205"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="204" t="s">
-        <v>374</v>
-      </c>
-      <c r="B124" s="205"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="209" t="s">
-        <v>373</v>
-      </c>
-      <c r="B125" s="205"/>
-      <c r="C125" s="4">
-        <v>3</v>
-      </c>
-      <c r="D125" s="4">
-        <v>3</v>
-      </c>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="210" t="s">
-        <v>372</v>
-      </c>
-      <c r="B126" s="205"/>
-      <c r="C126" s="4">
-        <v>1478</v>
-      </c>
-      <c r="D126" s="4">
-        <v>1410</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="B127" s="205"/>
-      <c r="C127" s="4">
-        <f>SUM(C125:C126)</f>
-        <v>1481</v>
-      </c>
-      <c r="D127" s="4">
-        <f>SUM(D125:D126)</f>
-        <v>1413</v>
-      </c>
-      <c r="E127" s="4">
-        <v>1381</v>
-      </c>
-      <c r="F127" s="4">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="204" t="s">
-        <v>371</v>
-      </c>
-      <c r="B128" s="205"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="209" t="s">
-        <v>370</v>
-      </c>
-      <c r="B129" s="205"/>
-      <c r="C129" s="4">
-        <v>43</v>
-      </c>
-      <c r="D129" s="4">
-        <v>43</v>
-      </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>369</v>
-      </c>
-      <c r="B130" s="208"/>
-      <c r="C130" s="4">
-        <v>380</v>
-      </c>
-      <c r="D130" s="4">
-        <v>156</v>
-      </c>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-    </row>
-    <row r="131" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>368</v>
-      </c>
-      <c r="C131" s="4">
-        <v>421</v>
-      </c>
-      <c r="D131" s="4">
-        <v>382</v>
-      </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-    </row>
-    <row r="132" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>367</v>
-      </c>
-      <c r="C132" s="4">
-        <v>85</v>
-      </c>
-      <c r="D132" s="4">
-        <v>77</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>366</v>
-      </c>
-      <c r="B133" s="205"/>
-      <c r="C133" s="4">
-        <v>105</v>
-      </c>
-      <c r="D133" s="4">
-        <v>80</v>
-      </c>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>365</v>
-      </c>
-      <c r="B134" s="205"/>
-      <c r="C134" s="4">
-        <v>66</v>
-      </c>
-      <c r="D134" s="4">
-        <v>42</v>
-      </c>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>364</v>
-      </c>
-      <c r="B135" s="205"/>
-      <c r="C135" s="4">
-        <v>7</v>
-      </c>
-      <c r="D135" s="4">
-        <v>7</v>
-      </c>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>363</v>
-      </c>
-      <c r="B136" s="205"/>
-      <c r="C136" s="4">
-        <v>73</v>
-      </c>
-      <c r="D136" s="4">
-        <v>75</v>
-      </c>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>362</v>
-      </c>
-      <c r="B137" s="205"/>
-      <c r="C137" s="4">
-        <v>3</v>
-      </c>
-      <c r="D137" s="4">
-        <v>7</v>
-      </c>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>361</v>
-      </c>
-      <c r="B138" s="205"/>
-      <c r="C138" s="4">
-        <v>17</v>
-      </c>
-      <c r="D138" s="4">
-        <v>14</v>
-      </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>360</v>
-      </c>
-      <c r="B139" s="207"/>
-      <c r="C139" s="4">
-        <v>2</v>
-      </c>
-      <c r="D139" s="4">
-        <v>3</v>
-      </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>359</v>
-      </c>
-      <c r="B140" s="206"/>
-      <c r="C140" s="4">
-        <v>4</v>
-      </c>
-      <c r="D140" s="4">
-        <v>4</v>
-      </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>358</v>
-      </c>
-      <c r="B141" s="205"/>
-      <c r="C141" s="4">
-        <v>1</v>
-      </c>
-      <c r="D141" s="4">
-        <v>8</v>
-      </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>357</v>
-      </c>
-      <c r="B142" s="205"/>
-      <c r="C142" s="4">
-        <v>10</v>
-      </c>
-      <c r="D142" s="4">
-        <v>12</v>
-      </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>356</v>
-      </c>
-      <c r="B143" s="205"/>
-      <c r="C143" s="4">
-        <v>10</v>
-      </c>
-      <c r="D143" s="4">
-        <v>7</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>355</v>
-      </c>
-      <c r="C144" s="4">
-        <v>4</v>
-      </c>
-      <c r="D144" s="4">
-        <v>5</v>
-      </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>354</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4">
-        <v>6</v>
-      </c>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>353</v>
-      </c>
-      <c r="C146" s="4">
-        <v>3</v>
-      </c>
-      <c r="D146" s="4">
-        <v>3</v>
-      </c>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>352</v>
-      </c>
-      <c r="C147" s="4">
-        <v>7</v>
-      </c>
-      <c r="D147" s="4">
-        <v>5</v>
-      </c>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>351</v>
-      </c>
-      <c r="C148" s="4">
-        <v>24</v>
-      </c>
-      <c r="D148" s="4">
-        <v>27</v>
-      </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-    </row>
-    <row r="149" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C149" s="4">
-        <f>SUM(C129,C130,C131)</f>
-        <v>844</v>
-      </c>
-      <c r="D149" s="4">
-        <f>SUM(D129,D130,D131)</f>
-        <v>581</v>
-      </c>
-      <c r="E149" s="4">
-        <v>521</v>
-      </c>
-      <c r="F149" s="4">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="204" t="s">
-        <v>350</v>
-      </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="4">
-        <v>46</v>
-      </c>
-      <c r="D151" s="4">
-        <v>558</v>
-      </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>348</v>
-      </c>
-      <c r="C152" s="4">
-        <v>233</v>
-      </c>
-      <c r="D152" s="4">
-        <v>128</v>
-      </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>347</v>
-      </c>
-      <c r="C153" s="4">
-        <v>25</v>
-      </c>
-      <c r="D153" s="4">
-        <v>5</v>
-      </c>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>346</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4">
-        <v>2</v>
-      </c>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-    </row>
-    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4">
-        <v>1</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-    </row>
-    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C156" s="4">
-        <f>SUM(C151:C155)</f>
-        <v>304</v>
-      </c>
-      <c r="D156" s="4">
-        <f>SUM(D151:D155)</f>
-        <v>694</v>
-      </c>
-      <c r="E156" s="4">
-        <v>437</v>
-      </c>
-      <c r="F156" s="4">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="204" t="s">
-        <v>344</v>
-      </c>
-      <c r="C157" s="4">
-        <v>6</v>
-      </c>
-      <c r="D157" s="4">
-        <v>34</v>
-      </c>
-      <c r="E157" s="4">
-        <v>4</v>
-      </c>
-      <c r="F157" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C158" s="4">
-        <f>SUM(C127,C149,C156,C157)</f>
-        <v>2635</v>
-      </c>
-      <c r="D158" s="4">
-        <f>SUM(D127,D149,D156,D157)</f>
-        <v>2722</v>
-      </c>
-      <c r="E158" s="4">
-        <f>SUM(E127,E149,E156,E157)</f>
-        <v>2343</v>
-      </c>
-      <c r="F158" s="4">
-        <f>SUM(F127,F149,F156,F157)</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="201" t="s">
-        <v>342</v>
-      </c>
-      <c r="C159" s="4">
-        <f>SUM(C158,C122)</f>
-        <v>7074</v>
-      </c>
-      <c r="D159" s="4">
-        <f>SUM(D158,D122)</f>
-        <v>6783</v>
-      </c>
-      <c r="E159" s="4">
-        <f>SUM(E158,E122)</f>
-        <v>6936</v>
-      </c>
-      <c r="F159" s="4">
-        <f>SUM(F158,F122)</f>
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C161" s="5">
-        <f>SUM(C159,C97)</f>
-        <v>10725</v>
-      </c>
-      <c r="D161" s="5">
-        <f>SUM(D159,D97)</f>
-        <v>10306</v>
-      </c>
-      <c r="E161" s="5">
-        <f>SUM(E159,E97)</f>
-        <v>9949</v>
-      </c>
-      <c r="F161" s="5">
-        <f>SUM(F159,F97,F160)</f>
-        <v>10387</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="201"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="201"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="201"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="201"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="203"/>
-      <c r="B191" s="202"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="201"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
-  <dimension ref="A1:S93"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11997,90 +9172,92 @@
     <col min="13" max="13" width="12.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="0.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="226" t="s">
-        <v>503</v>
+      <c r="A1" s="202" t="s">
+        <v>345</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
       <c r="D1" s="87"/>
       <c r="E1" s="56"/>
       <c r="F1" s="141" t="s">
-        <v>504</v>
+        <v>346</v>
       </c>
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
-      <c r="J1" s="226" t="s">
-        <v>505</v>
+      <c r="J1" s="202" t="s">
+        <v>408</v>
       </c>
       <c r="K1" s="86"/>
       <c r="L1" s="86"/>
       <c r="M1" s="86"/>
       <c r="N1" s="86"/>
       <c r="O1" s="86"/>
-      <c r="P1" s="244"/>
+      <c r="P1" s="220"/>
       <c r="Q1" s="86"/>
       <c r="R1" s="86"/>
       <c r="S1" s="87"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="228"/>
-      <c r="B2" s="232" t="s">
+      <c r="A2" s="204"/>
+      <c r="B2" s="208" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="229">
+      <c r="C2" s="205">
         <v>43830</v>
       </c>
-      <c r="D2" s="229">
+      <c r="D2" s="205">
         <v>43465</v>
       </c>
       <c r="E2" s="35"/>
-      <c r="F2" s="234">
+      <c r="F2" s="210">
         <v>43100</v>
       </c>
-      <c r="G2" s="229">
+      <c r="G2" s="205">
         <v>42735</v>
       </c>
-      <c r="H2" s="235">
+      <c r="H2" s="211">
         <v>42369</v>
       </c>
-      <c r="J2" s="228"/>
-      <c r="K2" s="232" t="s">
-        <v>509</v>
-      </c>
-      <c r="L2" s="239" t="s">
-        <v>507</v>
-      </c>
-      <c r="M2" s="229">
+      <c r="J2" s="204"/>
+      <c r="K2" s="208" t="s">
+        <v>350</v>
+      </c>
+      <c r="L2" s="215" t="s">
+        <v>348</v>
+      </c>
+      <c r="M2" s="205">
         <v>43830</v>
       </c>
-      <c r="N2" s="229">
+      <c r="N2" s="205">
         <v>43922</v>
       </c>
-      <c r="O2" s="240">
+      <c r="O2" s="216">
         <v>43556</v>
       </c>
-      <c r="P2" s="245" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q2" s="241">
+      <c r="P2" s="221" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q2" s="217">
         <v>43465</v>
       </c>
-      <c r="R2" s="229">
+      <c r="R2" s="205">
         <v>43556</v>
       </c>
-      <c r="S2" s="235">
+      <c r="S2" s="211">
         <v>43191</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="227" t="s">
-        <v>499</v>
+      <c r="A3" s="203" t="s">
+        <v>341</v>
       </c>
       <c r="B3" s="98">
         <f>SUM(C3,-D3)</f>
@@ -12100,8 +9277,8 @@
         <v>1821</v>
       </c>
       <c r="H3" s="102"/>
-      <c r="J3" s="227" t="s">
-        <v>499</v>
+      <c r="J3" s="203" t="s">
+        <v>341</v>
       </c>
       <c r="K3" s="98">
         <f xml:space="preserve"> L3-P3</f>
@@ -12117,14 +9294,14 @@
       <c r="N3" s="98">
         <v>2056</v>
       </c>
-      <c r="O3" s="237">
+      <c r="O3" s="213">
         <v>2077</v>
       </c>
       <c r="P3" s="102">
         <f t="shared" ref="P3:P6" si="1">Q3+R3-S3</f>
         <v>2032</v>
       </c>
-      <c r="Q3" s="242">
+      <c r="Q3" s="218">
         <v>1781</v>
       </c>
       <c r="R3" s="98">
@@ -12135,8 +9312,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="227" t="s">
-        <v>500</v>
+      <c r="A4" s="203" t="s">
+        <v>342</v>
       </c>
       <c r="B4" s="98">
         <f t="shared" ref="B4:B8" si="2">SUM(C4,-D4)</f>
@@ -12156,8 +9333,8 @@
         <v>159</v>
       </c>
       <c r="H4" s="102"/>
-      <c r="J4" s="227" t="s">
-        <v>506</v>
+      <c r="J4" s="203" t="s">
+        <v>347</v>
       </c>
       <c r="K4" s="98">
         <f t="shared" ref="K4:K8" si="3" xml:space="preserve"> L4-P4</f>
@@ -12173,14 +9350,14 @@
       <c r="N4" s="98">
         <v>104</v>
       </c>
-      <c r="O4" s="237">
+      <c r="O4" s="213">
         <v>119</v>
       </c>
       <c r="P4" s="102">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Q4" s="242">
+      <c r="Q4" s="218">
         <v>187</v>
       </c>
       <c r="R4" s="98">
@@ -12191,7 +9368,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="227"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
       <c r="D5" s="98"/>
@@ -12199,7 +9376,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="98"/>
       <c r="H5" s="102"/>
-      <c r="J5" s="227"/>
+      <c r="J5" s="203"/>
       <c r="K5" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12207,15 +9384,15 @@
       <c r="L5" s="98"/>
       <c r="M5" s="98"/>
       <c r="N5" s="98"/>
-      <c r="O5" s="237"/>
+      <c r="O5" s="213"/>
       <c r="P5" s="102"/>
-      <c r="Q5" s="242"/>
+      <c r="Q5" s="218"/>
       <c r="R5" s="98"/>
       <c r="S5" s="102"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="227" t="s">
-        <v>501</v>
+      <c r="A6" s="203" t="s">
+        <v>343</v>
       </c>
       <c r="B6" s="98">
         <f t="shared" si="2"/>
@@ -12235,8 +9412,8 @@
         <v>1384</v>
       </c>
       <c r="H6" s="102"/>
-      <c r="J6" s="227" t="s">
-        <v>501</v>
+      <c r="J6" s="203" t="s">
+        <v>343</v>
       </c>
       <c r="K6" s="98">
         <f t="shared" si="3"/>
@@ -12252,14 +9429,14 @@
       <c r="N6" s="98">
         <v>1323</v>
       </c>
-      <c r="O6" s="237">
+      <c r="O6" s="213">
         <v>1321</v>
       </c>
       <c r="P6" s="102">
         <f t="shared" si="1"/>
         <v>1584</v>
       </c>
-      <c r="Q6" s="242">
+      <c r="Q6" s="218">
         <v>1413</v>
       </c>
       <c r="R6" s="98">
@@ -12270,7 +9447,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="227"/>
+      <c r="A7" s="203"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
       <c r="D7" s="98"/>
@@ -12278,716 +9455,1138 @@
       <c r="F7" s="35"/>
       <c r="G7" s="98"/>
       <c r="H7" s="102"/>
-      <c r="J7" s="227"/>
+      <c r="J7" s="203"/>
       <c r="K7" s="98"/>
       <c r="L7" s="98"/>
       <c r="M7" s="98"/>
       <c r="N7" s="98"/>
-      <c r="O7" s="237"/>
+      <c r="O7" s="213"/>
       <c r="P7" s="102"/>
-      <c r="Q7" s="242"/>
+      <c r="Q7" s="218"/>
       <c r="R7" s="98"/>
       <c r="S7" s="102"/>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="230" t="s">
-        <v>502</v>
-      </c>
-      <c r="B8" s="233">
+      <c r="A8" s="206" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="209">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C8" s="231">
+      <c r="C8" s="207">
         <f>(SUM(C3,C4) -C6)</f>
         <v>555</v>
       </c>
-      <c r="D8" s="231">
+      <c r="D8" s="207">
         <f>SUM(D3,D4,-D6)</f>
         <v>555</v>
       </c>
       <c r="E8" s="103"/>
-      <c r="F8" s="231">
+      <c r="F8" s="207">
         <f t="shared" ref="F8:G8" si="4">SUM(F3,F4,-F6)</f>
         <v>437</v>
       </c>
-      <c r="G8" s="231">
+      <c r="G8" s="207">
         <f t="shared" si="4"/>
         <v>596</v>
       </c>
-      <c r="H8" s="236"/>
-      <c r="J8" s="230" t="s">
-        <v>502</v>
-      </c>
-      <c r="K8" s="233">
+      <c r="H8" s="212"/>
+      <c r="J8" s="206" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="209">
         <f t="shared" si="3"/>
         <v>-157</v>
       </c>
-      <c r="L8" s="231">
+      <c r="L8" s="207">
         <f xml:space="preserve"> M8 - O8 + N8</f>
         <v>517</v>
       </c>
-      <c r="M8" s="231">
+      <c r="M8" s="207">
         <f>(SUM(M3,M4) -M6)</f>
         <v>555</v>
       </c>
-      <c r="N8" s="231">
+      <c r="N8" s="207">
         <f t="shared" ref="N8:S8" si="5">(SUM(N3,N4) -N6)</f>
         <v>837</v>
       </c>
-      <c r="O8" s="238">
+      <c r="O8" s="214">
         <f t="shared" si="5"/>
         <v>875</v>
       </c>
-      <c r="P8" s="236">
+      <c r="P8" s="212">
         <f>Q8+R8-S8</f>
         <v>674</v>
       </c>
-      <c r="Q8" s="243">
+      <c r="Q8" s="219">
         <f t="shared" si="5"/>
         <v>555</v>
       </c>
-      <c r="R8" s="231">
+      <c r="R8" s="207">
         <f t="shared" si="5"/>
         <v>875</v>
       </c>
-      <c r="S8" s="236">
+      <c r="S8" s="212">
         <f t="shared" si="5"/>
         <v>756</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="202" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="141" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="250" t="s">
-        <v>513</v>
-      </c>
-      <c r="B12" s="53">
+      <c r="A12" s="204"/>
+      <c r="B12" s="208" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="205">
         <v>43830</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="D12" s="205">
+        <v>43465</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="210">
+        <v>43100</v>
+      </c>
+      <c r="G12" s="205">
+        <v>42735</v>
+      </c>
+      <c r="H12" s="211">
+        <v>42369</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="250" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="98">
+        <f>SUM(C13,-D13)</f>
+        <v>71</v>
+      </c>
+      <c r="C13" s="98">
+        <v>1852</v>
+      </c>
+      <c r="D13" s="98">
+        <v>1781</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="98">
+        <v>1671</v>
+      </c>
+      <c r="G13" s="98">
+        <v>1821</v>
+      </c>
+      <c r="H13" s="102">
+        <v>1485</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="250" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="98">
+        <f t="shared" ref="B14:B23" si="6">SUM(C14,-D14)</f>
+        <v>-3</v>
+      </c>
+      <c r="C14" s="98">
+        <v>184</v>
+      </c>
+      <c r="D14" s="98">
+        <v>187</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="98">
+        <v>147</v>
+      </c>
+      <c r="G14" s="98">
+        <v>159</v>
+      </c>
+      <c r="H14" s="102">
+        <v>184</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="203" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="98">
+        <v>0</v>
+      </c>
+      <c r="D15" s="98">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="98">
+        <v>0</v>
+      </c>
+      <c r="H15" s="102">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="250" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="98">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C16" s="98">
+        <f>SUM(C17:C18)</f>
+        <v>259</v>
+      </c>
+      <c r="D16" s="98">
+        <f>SUM(D17:D18)</f>
+        <v>199</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="203" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="98">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="98">
+        <v>63</v>
+      </c>
+      <c r="D17" s="98">
+        <v>49</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35">
+        <v>107</v>
+      </c>
+      <c r="G17" s="98">
+        <v>70</v>
+      </c>
+      <c r="H17" s="102">
+        <v>71</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="203" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" s="98">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="98">
+        <v>196</v>
+      </c>
+      <c r="D18" s="98">
+        <v>150</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35">
+        <v>120</v>
+      </c>
+      <c r="G18" s="98">
+        <v>124</v>
+      </c>
+      <c r="H18" s="102">
+        <v>128</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="203" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="98">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="C19" s="98">
+        <f>SUM(C13:C16)</f>
+        <v>2295</v>
+      </c>
+      <c r="D19" s="98">
+        <f>SUM(D13:D16)</f>
+        <v>2167</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98">
+        <f t="shared" ref="E19:H19" si="7">SUM(F13:F16)</f>
+        <v>1818</v>
+      </c>
+      <c r="G19" s="98">
+        <f t="shared" si="7"/>
+        <v>1980</v>
+      </c>
+      <c r="H19" s="98">
+        <f t="shared" si="7"/>
+        <v>1669</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="203"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="150" t="s">
+        <v>417</v>
+      </c>
+      <c r="K20" s="247">
+        <v>43830</v>
+      </c>
+      <c r="L20" s="247">
+        <v>43465</v>
+      </c>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="247">
+        <v>43100</v>
+      </c>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="247">
+        <v>42735</v>
+      </c>
+      <c r="U20" s="251">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="203" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="98">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="C21" s="98">
+        <v>1481</v>
+      </c>
+      <c r="D21" s="98">
+        <v>1413</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="98">
+        <v>1381</v>
+      </c>
+      <c r="G21" s="98">
+        <v>1384</v>
+      </c>
+      <c r="H21" s="102">
+        <v>1170</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="95"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="203" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="98">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="C22" s="98">
+        <v>844</v>
+      </c>
+      <c r="D22" s="98">
+        <v>581</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="98">
+        <v>521</v>
+      </c>
+      <c r="G22" s="98">
+        <v>744</v>
+      </c>
+      <c r="H22" s="102">
+        <v>521</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="151" t="s">
+        <v>418</v>
+      </c>
+      <c r="K22" s="6">
+        <v>434</v>
+      </c>
+      <c r="L22" s="6">
+        <v>624</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6">
+        <v>691</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6">
+        <v>402</v>
+      </c>
+      <c r="U22" s="95">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="203" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="98">
+        <f t="shared" si="6"/>
+        <v>331</v>
+      </c>
+      <c r="C23" s="98">
+        <f>SUM(C21:C22)</f>
+        <v>2325</v>
+      </c>
+      <c r="D23" s="98">
+        <f>SUM(D21:D22)</f>
+        <v>1994</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98">
+        <f t="shared" ref="E23:H23" si="8">SUM(F21:F22)</f>
+        <v>1902</v>
+      </c>
+      <c r="G23" s="98">
+        <f t="shared" si="8"/>
+        <v>2128</v>
+      </c>
+      <c r="H23" s="98">
+        <f t="shared" si="8"/>
+        <v>1691</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="151" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="6">
+        <f>K22-L22</f>
+        <v>-190</v>
+      </c>
+      <c r="L23" s="6">
+        <f>L22-P22</f>
+        <v>-67</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
+        <f>P22-T22</f>
+        <v>289</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6">
+        <f>T22-U22</f>
+        <v>-234</v>
+      </c>
+      <c r="U23" s="95"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="203"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="151" t="s">
+        <v>419</v>
+      </c>
+      <c r="K24" s="6">
+        <f>(SUM(K23:T23)/4)</f>
+        <v>-50.5</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="95"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="206" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="209">
+        <f t="shared" ref="B25" si="9">SUM(C25,-D25)</f>
+        <v>-203</v>
+      </c>
+      <c r="C25" s="207">
+        <f>SUM(C19,-C23)</f>
+        <v>-30</v>
+      </c>
+      <c r="D25" s="207">
+        <f>SUM(D19,-D23)</f>
+        <v>173</v>
+      </c>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207">
+        <f t="shared" ref="E25:H25" si="10">SUM(F19,-F23)</f>
+        <v>-84</v>
+      </c>
+      <c r="G25" s="207">
+        <f t="shared" si="10"/>
+        <v>-148</v>
+      </c>
+      <c r="H25" s="207">
+        <f t="shared" si="10"/>
+        <v>-22</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="97"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="226" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="53">
+        <v>43830</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B31" s="2">
         <v>1234</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B32" s="2">
         <v>547</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="2">
-        <v>687</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="204" t="s">
-        <v>510</v>
-      </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="151"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="95"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="95"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="151"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="95"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="151"/>
-      <c r="B33" s="6"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="95"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="95"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="95"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="95"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="95"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="151"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="95"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="152"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="97"/>
-    </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="150" t="s">
-        <v>541</v>
-      </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="94"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98" t="s">
-        <v>564</v>
-      </c>
-      <c r="K66" s="98" t="s">
-        <v>565</v>
-      </c>
-      <c r="L66" s="98" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="151"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="95"/>
-      <c r="I67" s="98" t="s">
-        <v>560</v>
-      </c>
-      <c r="J67" s="98">
-        <v>3.6880000000000003E-2</v>
-      </c>
-      <c r="K67" s="98">
-        <v>2</v>
-      </c>
-      <c r="L67" s="98">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="151" t="s">
-        <v>553</v>
-      </c>
-      <c r="B68" s="257">
-        <v>-7.2081146095294803E-4</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="257">
-        <v>-7.2081146095294803E-4</v>
-      </c>
-      <c r="I68" s="98" t="s">
-        <v>561</v>
-      </c>
-      <c r="J68" s="98">
-        <v>1.8360000000000001E-2</v>
-      </c>
-      <c r="K68" s="98">
-        <v>5</v>
-      </c>
-      <c r="L68" s="98">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="151" t="s">
-        <v>554</v>
-      </c>
-      <c r="B69" s="258">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="258">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I69" s="98" t="s">
-        <v>562</v>
-      </c>
-      <c r="J69" s="98">
-        <v>1.7680000000000001E-2</v>
-      </c>
-      <c r="K69" s="98">
-        <v>8</v>
-      </c>
-      <c r="L69" s="98">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="263" t="s">
-        <v>543</v>
-      </c>
-      <c r="B70" s="264">
-        <f>SUM(B68:B69)</f>
-        <v>1.4279188539047052E-2</v>
-      </c>
-      <c r="C70" s="259"/>
-      <c r="D70" s="259" t="s">
-        <v>543</v>
-      </c>
-      <c r="E70" s="259"/>
-      <c r="F70" s="259">
-        <f t="shared" ref="F70" si="6">SUM(F68:F69)</f>
-        <v>1.4279188539047052E-2</v>
-      </c>
-      <c r="I70" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="J70" s="98">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="K70" s="98">
-        <v>10</v>
-      </c>
-      <c r="L70" s="98">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="201" t="s">
+        <v>351</v>
+      </c>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="94"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="151"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="95"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="151"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="95"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="151"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="95"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="151"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="95"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="151"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="95"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="151"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="95"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="151"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="95"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="151"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="95"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="151"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="95"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="152"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="97"/>
+    </row>
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="150" t="s">
+        <v>382</v>
+      </c>
+      <c r="B76" s="93"/>
+      <c r="C76" s="93"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="93"/>
+      <c r="F76" s="94"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="98" t="s">
+        <v>405</v>
+      </c>
+      <c r="K76" s="98" t="s">
+        <v>406</v>
+      </c>
+      <c r="L76" s="98" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="151"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="95"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="151" t="s">
-        <v>542</v>
-      </c>
-      <c r="B72" s="257">
-        <v>-7.2081146095294803E-4</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="257">
-        <v>-7.2081146095294803E-4</v>
-      </c>
-      <c r="I72" s="200" t="s">
-        <v>566</v>
-      </c>
-      <c r="J72" s="272">
-        <f xml:space="preserve"> (PRODUCT(J67:L67) + PRODUCT(J68:L68) + PRODUCT(J69:L69) + PRODUCT(J70:L70)) / (PRODUCT(K67:L67) + PRODUCT(K68:L68) + PRODUCT(K69:L69) + PRODUCT(K70:L70))</f>
-        <v>1.8253033707865168E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="151" t="s">
-        <v>555</v>
-      </c>
-      <c r="B73" s="260">
-        <v>2.99661426831043E-2</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="260">
-        <v>2.99661426831043E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="151" t="s">
-        <v>556</v>
-      </c>
-      <c r="B74" s="256">
-        <v>4.0205104717786398E-2</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6">
-        <v>4.02051047177864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="151" t="s">
-        <v>557</v>
-      </c>
-      <c r="B75" s="261">
-        <f>SUM(B73:B74)</f>
-        <v>7.0171247400890702E-2</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E75" s="6"/>
-      <c r="F75" s="95"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="151" t="s">
-        <v>544</v>
-      </c>
-      <c r="B76" s="262">
-        <v>0.87311649000000002</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="250" t="s">
-        <v>550</v>
-      </c>
-      <c r="E76" s="250"/>
-      <c r="F76" s="95"/>
-    </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="151" t="s">
-        <v>545</v>
-      </c>
-      <c r="B77" s="259">
-        <f>B72+PRODUCT(B76,B75)</f>
-        <v>6.0546861768634365E-2</v>
-      </c>
+      <c r="A77" s="151"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="6" t="s">
-        <v>545</v>
-      </c>
+      <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="95"/>
+      <c r="I77" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="J77" s="98">
+        <v>3.6880000000000003E-2</v>
+      </c>
+      <c r="K77" s="98">
+        <v>2</v>
+      </c>
+      <c r="L77" s="98">
+        <v>500</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="151"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="151" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" s="231">
+        <v>-7.2081146095294803E-4</v>
+      </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="E78" s="6"/>
-      <c r="F78" s="95"/>
+      <c r="F78" s="231">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="I78" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="J78" s="98">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="K78" s="98">
+        <v>5</v>
+      </c>
+      <c r="L78" s="98">
+        <v>300</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="151" t="s">
-        <v>546</v>
-      </c>
-      <c r="B79" s="258">
-        <v>0.27900000000000003</v>
+        <v>395</v>
+      </c>
+      <c r="B79" s="232">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
-        <v>551</v>
+        <v>390</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="95"/>
+      <c r="F79" s="232">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I79" s="98" t="s">
+        <v>403</v>
+      </c>
+      <c r="J79" s="98">
+        <v>1.7680000000000001E-2</v>
+      </c>
+      <c r="K79" s="98">
+        <v>8</v>
+      </c>
+      <c r="L79" s="98">
+        <v>300</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="151"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="95"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="151" t="s">
-        <v>547</v>
-      </c>
+      <c r="A80" s="237" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="238">
+        <f>SUM(B78:B79)</f>
+        <v>1.4279188539047052E-2</v>
+      </c>
+      <c r="C80" s="233"/>
+      <c r="D80" s="233" t="s">
+        <v>384</v>
+      </c>
+      <c r="E80" s="233"/>
+      <c r="F80" s="233">
+        <f t="shared" ref="F80" si="11">SUM(F78:F79)</f>
+        <v>1.4279188539047052E-2</v>
+      </c>
+      <c r="I80" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="J80" s="98">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="K80" s="98">
+        <v>10</v>
+      </c>
+      <c r="L80" s="98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="151"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="95"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="151"/>
-      <c r="B82" s="6"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="151" t="s">
+        <v>383</v>
+      </c>
+      <c r="B82" s="231">
+        <v>-7.2081146095294803E-4</v>
+      </c>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="95"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="152"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="97"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="253" t="s">
-        <v>536</v>
-      </c>
-      <c r="B87" s="254" t="s">
-        <v>535</v>
-      </c>
-      <c r="C87" s="255">
+      <c r="F82" s="231">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="I82" s="200" t="s">
+        <v>407</v>
+      </c>
+      <c r="J82" s="239">
+        <f xml:space="preserve"> (PRODUCT(J77:L77) + PRODUCT(J78:L78) + PRODUCT(J79:L79) + PRODUCT(J80:L80)) / (PRODUCT(K77:L77) + PRODUCT(K78:L78) + PRODUCT(K79:L79) + PRODUCT(K80:L80))</f>
+        <v>1.8253033707865168E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="151" t="s">
+        <v>396</v>
+      </c>
+      <c r="B83" s="234">
+        <v>2.99661426831043E-2</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="234">
+        <v>2.99661426831043E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="151" t="s">
+        <v>397</v>
+      </c>
+      <c r="B84" s="230">
+        <v>4.0205104717786398E-2</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6">
+        <v>4.02051047177864</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="151" t="s">
+        <v>398</v>
+      </c>
+      <c r="B85" s="235">
+        <f>SUM(B83:B84)</f>
+        <v>7.0171247400890702E-2</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="95"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="151" t="s">
+        <v>385</v>
+      </c>
+      <c r="B86" s="236">
+        <v>0.87311649000000002</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="226" t="s">
+        <v>391</v>
+      </c>
+      <c r="E86" s="226"/>
+      <c r="F86" s="95"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="151" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" s="233">
+        <f>B82+PRODUCT(B86,B85)</f>
+        <v>6.0546861768634365E-2</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="95"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="151"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="95"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="151" t="s">
+        <v>387</v>
+      </c>
+      <c r="B89" s="232">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="95"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="151"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="95"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="151" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="95"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="151"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="95"/>
+    </row>
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="152"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="97"/>
+    </row>
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="227" t="s">
+        <v>377</v>
+      </c>
+      <c r="B97" s="228" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" s="229">
         <v>3289</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="253" t="s">
-        <v>537</v>
-      </c>
-      <c r="B88" s="254" t="s">
-        <v>538</v>
-      </c>
-      <c r="C88" s="255">
+    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="227" t="s">
+        <v>378</v>
+      </c>
+      <c r="B98" s="228" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="229">
         <f>PRODUCT(1.67,3109.183856)</f>
         <v>5192.33703952</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="253" t="s">
-        <v>530</v>
-      </c>
-      <c r="B89" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="C89" s="255">
+    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="227" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" s="228" t="s">
+        <v>373</v>
+      </c>
+      <c r="C99" s="229">
         <v>3307</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="150" t="s">
-        <v>531</v>
-      </c>
-      <c r="B90" s="93"/>
-      <c r="C90" s="94">
-        <f>(SUM(C91:C93))</f>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="150" t="s">
+        <v>372</v>
+      </c>
+      <c r="B100" s="93"/>
+      <c r="C100" s="94">
+        <f>(SUM(C101:C103))</f>
         <v>3754</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="151"/>
-      <c r="B91" s="98" t="s">
-        <v>533</v>
-      </c>
-      <c r="C91" s="102">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="151"/>
+      <c r="B101" s="98" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="102">
         <v>3635</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="151"/>
-      <c r="B92" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="C92" s="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="151"/>
+      <c r="B102" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="102">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="152"/>
-      <c r="B93" s="103" t="s">
-        <v>534</v>
-      </c>
-      <c r="C93" s="104">
+    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="152"/>
+      <c r="B103" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="104">
         <v>117</v>
       </c>
     </row>
@@ -12998,293 +10597,377 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71461D4C-151F-470B-8443-1903C71474D2}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="200" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="246" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="151"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C3">
+      <c r="D2" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="151" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
         <f xml:space="preserve"> SUM(1544.265 +3056-764)</f>
         <v>3836.2650000000003</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f>(C3/C10)</f>
         <v>0.52576026796023623</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.41</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="95">
         <f>PRODUCT(D3,E3)</f>
         <v>0.21556170986369683</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="151" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
         <v>49.814999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <f>(C4/C10)</f>
         <v>6.8271476940303041E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="95">
         <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>1.9798728312687879E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>522</v>
-      </c>
-      <c r="C5" s="251">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="151" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="248">
         <f>514.755 + 764</f>
         <v>1278.7550000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <f>(C5/C10)</f>
         <v>0.17525342265341209</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="95">
         <f t="shared" si="0"/>
         <v>0.10515205359204725</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="151" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>903</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <f>(C6/C10)</f>
         <v>0.12375618523957373</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>0.8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="95">
         <f t="shared" si="0"/>
         <v>9.900494819165899E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="151"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="151" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>1228.77</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <f>(C8/C10)</f>
         <v>0.16840297645274752</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>0.74</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="95">
         <f t="shared" si="0"/>
         <v>0.12461820257503316</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>520</v>
-      </c>
-      <c r="D9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="151" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <f>(C9/C10)</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>0.91</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="152" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96">
         <f>SUM(C3:C9)</f>
         <v>7296.6050000000014</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="96">
         <f>SUM(D3:D9)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F10" s="252">
+      <c r="E10" s="96"/>
+      <c r="F10" s="249">
         <f t="shared" ref="F10" si="1">SUM(F3:F9)</f>
         <v>0.54631678705370501</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I14" s="253" t="s">
-        <v>536</v>
-      </c>
-      <c r="J14" s="254" t="s">
-        <v>535</v>
-      </c>
-      <c r="K14" s="255">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="227" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="229" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="227" t="s">
+        <v>377</v>
+      </c>
+      <c r="J14" s="228" t="s">
+        <v>376</v>
+      </c>
+      <c r="K14" s="229">
         <v>3289</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="200" t="s">
-        <v>525</v>
-      </c>
-      <c r="I15" s="253" t="s">
-        <v>537</v>
-      </c>
-      <c r="J15" s="254" t="s">
-        <v>558</v>
-      </c>
-      <c r="K15" s="255">
+      <c r="L14" s="229">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="246" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="247">
+        <v>43830</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="I15" s="227" t="s">
+        <v>378</v>
+      </c>
+      <c r="J15" s="228" t="s">
+        <v>399</v>
+      </c>
+      <c r="K15" s="229">
         <f>PRODUCT(1.67,3109.183856)</f>
         <v>5192.33703952</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>526</v>
-      </c>
-      <c r="B16">
+      <c r="L15" s="229">
+        <f>PRODUCT(1.21,3109.183856)</f>
+        <v>3762.1124657599998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="151" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="6">
         <f>F10</f>
         <v>0.54631678705370501</v>
       </c>
-      <c r="I16" s="253" t="s">
-        <v>530</v>
-      </c>
-      <c r="J16" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="K16" s="255">
+      <c r="C16" s="95">
+        <f>F10</f>
+        <v>0.54631678705370501</v>
+      </c>
+      <c r="I16" s="227" t="s">
+        <v>371</v>
+      </c>
+      <c r="J16" s="228" t="s">
+        <v>373</v>
+      </c>
+      <c r="K16" s="229">
         <v>3307</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>527</v>
-      </c>
-      <c r="B17">
+      <c r="L16" s="229">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="151" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="6">
         <f>K16/K14</f>
         <v>1.0054727880814838</v>
       </c>
+      <c r="C17" s="95">
+        <f>L16/L14</f>
+        <v>1.0054727880814838</v>
+      </c>
       <c r="I17" s="150" t="s">
-        <v>531</v>
+        <v>372</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="94">
         <f>(SUM(K18:K20))</f>
         <v>3754</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>528</v>
-      </c>
-      <c r="B18">
+      <c r="L17" s="94">
+        <f>(SUM(L18:L20))</f>
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="151" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="6">
         <f>K17/K15</f>
         <v>0.7229885062212823</v>
       </c>
+      <c r="C18" s="95">
+        <f>L17/L15</f>
+        <v>0.99784364081780286</v>
+      </c>
       <c r="I18" s="151"/>
       <c r="J18" s="98" t="s">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="K18" s="102">
         <v>3635</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>529</v>
-      </c>
-      <c r="B19">
+      <c r="L18" s="102">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="151" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C19" s="95">
         <v>0.27900000000000003</v>
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="98" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K19" s="102">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>539</v>
-      </c>
-      <c r="B20">
+      <c r="L19" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="151" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="6">
         <f>PRODUCT(B16,(1+PRODUCT((1-B19),B17)))</f>
         <v>0.94236689111607663</v>
       </c>
+      <c r="C20" s="95">
+        <f>PRODUCT(B16*(1+PRODUCT((1-B19),C17)))</f>
+        <v>0.94236689111607663</v>
+      </c>
       <c r="I20" s="152"/>
       <c r="J20" s="103" t="s">
-        <v>534</v>
+        <v>375</v>
       </c>
       <c r="K20" s="104">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>540</v>
-      </c>
-      <c r="B21">
+      <c r="L20" s="104">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="96">
         <f>PRODUCT(B16,(1+PRODUCT((1-B19),B18)))</f>
         <v>0.83109791342430983</v>
+      </c>
+      <c r="C21" s="97">
+        <f>PRODUCT(C16,(1+PRODUCT((1-C19),C18)))</f>
+        <v>0.93936181270569696</v>
       </c>
     </row>
   </sheetData>
@@ -13292,7 +10975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1BB66B-C038-41A3-A377-50E94E5A5614}">
   <dimension ref="A2:X12"/>
   <sheetViews>
@@ -13649,6 +11332,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F796E7-F67A-4DAF-82A4-1182099AF78F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A099D8-29D0-45EA-B373-6125C660EC5A}">
   <dimension ref="A1:H67"/>
@@ -13667,14 +11362,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="267"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="242"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B37F345-1893-4E46-A7EE-6E8E07F790E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="428">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1191,9 +1191,6 @@
     <t xml:space="preserve">Equity market </t>
   </si>
   <si>
-    <t>Market cap (at 31/12/20)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Levered Beta book value </t>
   </si>
   <si>
@@ -1203,39 +1200,21 @@
     <t xml:space="preserve">WACC </t>
   </si>
   <si>
-    <t xml:space="preserve">Risk free rate </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cost of debt </t>
   </si>
   <si>
-    <t xml:space="preserve">Regression (levered Beta) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cost of equity </t>
   </si>
   <si>
     <t xml:space="preserve">Tax Rate </t>
   </si>
   <si>
-    <t>WACC</t>
-  </si>
-  <si>
     <t>Risk free rate</t>
   </si>
   <si>
     <t>Spread on debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Bottom up levered beta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tax rate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wacc </t>
-  </si>
-  <si>
     <t xml:space="preserve">Risk free rate  (German bunds 10 Y spot rates, daily obs over past two years) </t>
   </si>
   <si>
@@ -1248,9 +1227,6 @@
     <t xml:space="preserve">Country risk premium </t>
   </si>
   <si>
-    <t xml:space="preserve">Equity risk premium </t>
-  </si>
-  <si>
     <t>Market cap (at 31/12/19)</t>
   </si>
   <si>
@@ -1318,19 +1294,62 @@
   </si>
   <si>
     <t xml:space="preserve">Operating liabilities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 1: risk free rate, default spread, regression beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 3: average cost of debt, regression beta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 3 </t>
+  </si>
+  <si>
+    <t>Net of taxes cost of debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net of taxes cost of debt </t>
+  </si>
+  <si>
+    <t>Risk free rate (A)</t>
+  </si>
+  <si>
+    <t>Equity risk premium (B)</t>
+  </si>
+  <si>
+    <t>Regression (levered Beta) (C)</t>
+  </si>
+  <si>
+    <t>Bottom up levered beta (C )</t>
+  </si>
+  <si>
+    <t>WACC (book value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WACC (market value) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 2: risk free rate, default sprea, bottom up beta (at market values) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000%"/>
     <numFmt numFmtId="167" formatCode="0.000000%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1413,7 +1432,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1495,6 +1514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2319,7 +2344,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2568,12 +2593,14 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2592,12 +2619,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -2608,9 +2646,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3555,14 +3593,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="245" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="245"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="247"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="84" t="s">
@@ -5961,15 +5999,15 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="240" t="s">
+      <c r="A105" s="242" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="241"/>
-      <c r="C105" s="241"/>
-      <c r="D105" s="241"/>
-      <c r="E105" s="241"/>
-      <c r="F105" s="241"/>
-      <c r="G105" s="242"/>
+      <c r="B105" s="243"/>
+      <c r="C105" s="243"/>
+      <c r="D105" s="243"/>
+      <c r="E105" s="243"/>
+      <c r="F105" s="243"/>
+      <c r="G105" s="244"/>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -9152,19 +9190,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
-  <dimension ref="A1:U103"/>
+  <dimension ref="A1:U119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11.21875" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
@@ -9193,7 +9234,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
       <c r="J1" s="202" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K1" s="86"/>
       <c r="L1" s="86"/>
@@ -9535,7 +9576,7 @@
     <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="202" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
@@ -9572,7 +9613,7 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="250" t="s">
+      <c r="A13" s="240" t="s">
         <v>341</v>
       </c>
       <c r="B13" s="98">
@@ -9598,7 +9639,7 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="250" t="s">
+      <c r="A14" s="240" t="s">
         <v>342</v>
       </c>
       <c r="B14" s="98">
@@ -9625,7 +9666,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="203" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B15" s="98">
         <f t="shared" si="6"/>
@@ -9650,8 +9691,8 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="250" t="s">
-        <v>414</v>
+      <c r="A16" s="240" t="s">
+        <v>406</v>
       </c>
       <c r="B16" s="98">
         <f t="shared" si="6"/>
@@ -9673,7 +9714,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="203" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B17" s="98">
         <f t="shared" si="6"/>
@@ -9699,7 +9740,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="203" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B18" s="98">
         <f t="shared" si="6"/>
@@ -9725,7 +9766,7 @@
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="203" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B19" s="98">
         <f t="shared" si="6"/>
@@ -9741,7 +9782,7 @@
       </c>
       <c r="E19" s="98"/>
       <c r="F19" s="98">
-        <f t="shared" ref="E19:H19" si="7">SUM(F13:F16)</f>
+        <f t="shared" ref="F19:H19" si="7">SUM(F13:F16)</f>
         <v>1818</v>
       </c>
       <c r="G19" s="98">
@@ -9765,27 +9806,27 @@
       <c r="H20" s="102"/>
       <c r="I20" s="6"/>
       <c r="J20" s="150" t="s">
-        <v>417</v>
-      </c>
-      <c r="K20" s="247">
+        <v>409</v>
+      </c>
+      <c r="K20" s="237">
         <v>43830</v>
       </c>
-      <c r="L20" s="247">
+      <c r="L20" s="237">
         <v>43465</v>
       </c>
       <c r="M20" s="93"/>
       <c r="N20" s="93"/>
       <c r="O20" s="93"/>
-      <c r="P20" s="247">
+      <c r="P20" s="237">
         <v>43100</v>
       </c>
       <c r="Q20" s="93"/>
       <c r="R20" s="93"/>
       <c r="S20" s="93"/>
-      <c r="T20" s="247">
+      <c r="T20" s="237">
         <v>42735</v>
       </c>
-      <c r="U20" s="251">
+      <c r="U20" s="241">
         <v>42369</v>
       </c>
     </row>
@@ -9829,7 +9870,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="203" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B22" s="98">
         <f t="shared" si="6"/>
@@ -9853,7 +9894,7 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="151" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K22" s="6">
         <v>434</v>
@@ -9879,7 +9920,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="203" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B23" s="98">
         <f t="shared" si="6"/>
@@ -9895,7 +9936,7 @@
       </c>
       <c r="E23" s="98"/>
       <c r="F23" s="98">
-        <f t="shared" ref="E23:H23" si="8">SUM(F21:F22)</f>
+        <f t="shared" ref="F23:H23" si="8">SUM(F21:F22)</f>
         <v>1902</v>
       </c>
       <c r="G23" s="98">
@@ -9945,7 +9986,7 @@
       <c r="H24" s="102"/>
       <c r="I24" s="6"/>
       <c r="J24" s="151" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K24" s="6">
         <f>(SUM(K23:T23)/4)</f>
@@ -9980,7 +10021,7 @@
       </c>
       <c r="E25" s="207"/>
       <c r="F25" s="207">
-        <f t="shared" ref="E25:H25" si="10">SUM(F19,-F23)</f>
+        <f t="shared" ref="F25:H25" si="10">SUM(F19,-F23)</f>
         <v>-84</v>
       </c>
       <c r="G25" s="207">
@@ -10227,366 +10268,655 @@
       <c r="H49" s="97"/>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="150" t="s">
-        <v>382</v>
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="201" t="s">
+        <v>381</v>
       </c>
       <c r="B76" s="93"/>
       <c r="C76" s="93"/>
       <c r="D76" s="93"/>
       <c r="E76" s="93"/>
-      <c r="F76" s="94"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98" t="s">
-        <v>405</v>
-      </c>
-      <c r="K76" s="98" t="s">
-        <v>406</v>
-      </c>
-      <c r="L76" s="98" t="s">
-        <v>400</v>
-      </c>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="151"/>
+      <c r="A77" s="256" t="s">
+        <v>414</v>
+      </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="95"/>
-      <c r="I77" s="98" t="s">
-        <v>401</v>
-      </c>
-      <c r="J77" s="98">
-        <v>3.6880000000000003E-2</v>
-      </c>
-      <c r="K77" s="98">
-        <v>2</v>
-      </c>
-      <c r="L77" s="98">
-        <v>500</v>
-      </c>
+      <c r="D77" s="257" t="s">
+        <v>415</v>
+      </c>
+      <c r="E77" s="257"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="257" t="s">
+        <v>418</v>
+      </c>
+      <c r="I77" s="257"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="151" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B78" s="231">
         <v>-7.2081146095294803E-4</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="231">
+        <v>385</v>
+      </c>
+      <c r="E78" s="233">
         <v>-7.2081146095294803E-4</v>
       </c>
-      <c r="I78" s="98" t="s">
-        <v>402</v>
-      </c>
-      <c r="J78" s="98">
-        <v>1.8360000000000001E-2</v>
-      </c>
-      <c r="K78" s="98">
-        <v>5</v>
-      </c>
-      <c r="L78" s="98">
-        <v>300</v>
-      </c>
+      <c r="F78" s="231"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="58"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="151" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B79" s="232">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="232">
+        <v>386</v>
+      </c>
+      <c r="E79" s="232">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I79" s="98" t="s">
-        <v>403</v>
-      </c>
-      <c r="J79" s="98">
-        <v>1.7680000000000001E-2</v>
-      </c>
-      <c r="K79" s="98">
-        <v>8</v>
-      </c>
-      <c r="L79" s="98">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="237" t="s">
-        <v>384</v>
-      </c>
-      <c r="B80" s="238">
+      <c r="F79" s="232"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I79" s="253">
+        <f>I105</f>
+        <v>1.8253033707865168E-2</v>
+      </c>
+      <c r="J79" s="58"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="250" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" s="251">
         <f>SUM(B78:B79)</f>
         <v>1.4279188539047052E-2</v>
       </c>
       <c r="C80" s="233"/>
-      <c r="D80" s="233" t="s">
+      <c r="D80" s="252" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="252">
+        <f>SUM(E78:E79)</f>
+        <v>1.4279188539047052E-2</v>
+      </c>
+      <c r="F80" s="233"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="151" t="s">
         <v>384</v>
       </c>
-      <c r="E80" s="233"/>
-      <c r="F80" s="233">
-        <f t="shared" ref="F80" si="11">SUM(F78:F79)</f>
-        <v>1.4279188539047052E-2</v>
-      </c>
-      <c r="I80" s="98" t="s">
-        <v>404</v>
-      </c>
-      <c r="J80" s="98">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="K80" s="98">
-        <v>10</v>
-      </c>
-      <c r="L80" s="98">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="151"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="232">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="95"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D81" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E81" s="232">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="I81" s="232">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="J81" s="58"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="151" t="s">
-        <v>383</v>
-      </c>
-      <c r="B82" s="231">
-        <v>-7.2081146095294803E-4</v>
+        <v>419</v>
+      </c>
+      <c r="B82" s="230">
+        <f>PRODUCT(B80,(1-B81))</f>
+        <v>1.0295294936652924E-2</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" s="230">
+        <f>PRODUCT(E80,(1-E81))</f>
+        <v>1.0295294936652924E-2</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I82" s="248">
+        <f>PRODUCT(I79,(1-I81))</f>
+        <v>1.3160437303370786E-2</v>
+      </c>
+      <c r="J82" s="58"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="151"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="254"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="151" t="s">
+        <v>421</v>
+      </c>
+      <c r="B84" s="231">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E84" s="233">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="F84" s="231"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="I84" s="231">
+        <v>-7.2081146095294803E-4</v>
+      </c>
+      <c r="J84" s="249"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="151" t="s">
+        <v>389</v>
+      </c>
+      <c r="B85" s="234">
+        <v>2.99661426831043E-2</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E85" s="234">
+        <v>2.99661426831043E-2</v>
+      </c>
+      <c r="F85" s="234"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I85" s="234">
+        <v>2.99661426831043E-2</v>
+      </c>
+      <c r="J85" s="95"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="151" t="s">
+        <v>390</v>
+      </c>
+      <c r="B86" s="230">
+        <v>4.0205104717786398E-2</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E86" s="253">
+        <v>4.0205104717786398E-2</v>
+      </c>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I86" s="230">
+        <v>4.0205104717786398E-2</v>
+      </c>
+      <c r="J86" s="95"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="151" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" s="234">
+        <f>SUM(B85:B86)</f>
+        <v>7.0171247400890702E-2</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E87" s="234">
+        <f>SUM(E85:E86)</f>
+        <v>7.0171247400890702E-2</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="I87" s="234">
+        <f>SUM(I85:I86)</f>
+        <v>7.0171247400890702E-2</v>
+      </c>
+      <c r="J87" s="95"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="152" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" s="255">
+        <v>0.87311649000000002</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" s="59">
+        <v>0.83109791342430983</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="I88" s="255">
+        <v>0.87311649000000002</v>
+      </c>
+      <c r="J88" s="95"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="151" t="s">
         <v>383</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="231">
-        <v>-7.2081146095294803E-4</v>
-      </c>
-      <c r="I82" s="200" t="s">
-        <v>407</v>
-      </c>
-      <c r="J82" s="239">
-        <f xml:space="preserve"> (PRODUCT(J77:L77) + PRODUCT(J78:L78) + PRODUCT(J79:L79) + PRODUCT(J80:L80)) / (PRODUCT(K77:L77) + PRODUCT(K78:L78) + PRODUCT(K79:L79) + PRODUCT(K80:L80))</f>
-        <v>1.8253033707865168E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="151" t="s">
-        <v>396</v>
-      </c>
-      <c r="B83" s="234">
-        <v>2.99661426831043E-2</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="234">
-        <v>2.99661426831043E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="151" t="s">
-        <v>397</v>
-      </c>
-      <c r="B84" s="230">
-        <v>4.0205104717786398E-2</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6">
-        <v>4.02051047177864</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="151" t="s">
-        <v>398</v>
-      </c>
-      <c r="B85" s="235">
-        <f>SUM(B83:B84)</f>
-        <v>7.0171247400890702E-2</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="95"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="151" t="s">
-        <v>385</v>
-      </c>
-      <c r="B86" s="236">
-        <v>0.87311649000000002</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="226" t="s">
-        <v>391</v>
-      </c>
-      <c r="E86" s="226"/>
-      <c r="F86" s="95"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="151" t="s">
-        <v>386</v>
-      </c>
-      <c r="B87" s="233">
-        <f>B82+PRODUCT(B86,B85)</f>
+      <c r="B89" s="233">
+        <f>B84+PRODUCT(B88,B87)</f>
         <v>6.0546861768634365E-2</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="95"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="151"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="95"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="151" t="s">
-        <v>387</v>
-      </c>
-      <c r="B89" s="232">
-        <v>0.27900000000000003</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="95"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="E89" s="233">
+        <f>E84+PRODUCT(E87:E88)</f>
+        <v>5.7598365836308334E-2</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I89" s="233">
+        <f>SUM(I84,PRODUCT(I88,I87))</f>
+        <v>6.0546861768634365E-2</v>
+      </c>
+      <c r="J89" s="95"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="151"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="95"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="151" t="s">
-        <v>388</v>
-      </c>
-      <c r="B91" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="95"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="264" t="s">
+        <v>425</v>
+      </c>
+      <c r="B91" s="261">
+        <f>B89*(C113/(C113+C115)) + B82*(C115/(C113+C115))</f>
+        <v>3.5352511933376234E-2</v>
+      </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="264" t="s">
+        <v>425</v>
+      </c>
+      <c r="E91" s="262"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="264" t="s">
+        <v>425</v>
+      </c>
+      <c r="I91" s="261">
+        <f>I89*(C113/(C113+C115)) + I82*(C115/(C113+C115))</f>
+        <v>3.6788992498375625E-2</v>
+      </c>
+      <c r="J91" s="95"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="264" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" s="261">
+        <f>B89*(C114/(C114+C116)) + B82*(C116/(C114+C116))</f>
+        <v>3.9460647259396547E-2</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="264" t="s">
+        <v>426</v>
+      </c>
+      <c r="E92" s="263">
+        <f>E89*(C114/(C114+C116)) + E82*(C116/(C114+C116))</f>
+        <v>3.7749378773460775E-2</v>
+      </c>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="264" t="s">
+        <v>426</v>
+      </c>
+      <c r="I92" s="261">
+        <f>I89*(C114/(C114+C116)) + I82*(C116/(C114+C116))</f>
+        <v>4.0662898459764465E-2</v>
+      </c>
+      <c r="J92" s="95"/>
+    </row>
+    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="151"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="95"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="151"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="258" t="s">
+        <v>416</v>
+      </c>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="151"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="259" t="s">
+        <v>427</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="95"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="152"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
+      <c r="G96" s="260" t="s">
+        <v>417</v>
+      </c>
+      <c r="H96" s="96"/>
+      <c r="I96" s="96"/>
+      <c r="J96" s="97"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H99" s="98"/>
+      <c r="I99" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="J99" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="K99" s="98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="H100" s="98" t="s">
         <v>393</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="95"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="151"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="95"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="152"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="97"/>
-    </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="227" t="s">
+      <c r="I100" s="98">
+        <v>3.6880000000000003E-2</v>
+      </c>
+      <c r="J100" s="98">
+        <v>2</v>
+      </c>
+      <c r="K100" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="H101" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="I101" s="98">
+        <v>1.8360000000000001E-2</v>
+      </c>
+      <c r="J101" s="98">
+        <v>5</v>
+      </c>
+      <c r="K101" s="98">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="H102" s="98" t="s">
+        <v>395</v>
+      </c>
+      <c r="I102" s="98">
+        <v>1.7680000000000001E-2</v>
+      </c>
+      <c r="J102" s="98">
+        <v>8</v>
+      </c>
+      <c r="K102" s="98">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="H103" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="I103" s="98">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="J103" s="98">
+        <v>10</v>
+      </c>
+      <c r="K103" s="98">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="H105" s="200" t="s">
+        <v>399</v>
+      </c>
+      <c r="I105" s="235">
+        <f xml:space="preserve"> (PRODUCT(I100:K100) + PRODUCT(I101:K101) + PRODUCT(I102:K102) + PRODUCT(I103:K103)) / (PRODUCT(J100:K100) + PRODUCT(J101:K101) + PRODUCT(J102:K102) + PRODUCT(J103:K103))</f>
+        <v>1.8253033707865168E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="227" t="s">
+        <v>402</v>
+      </c>
+      <c r="D112" s="229" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="227" t="s">
         <v>377</v>
       </c>
-      <c r="B97" s="228" t="s">
+      <c r="B113" s="228" t="s">
         <v>376</v>
       </c>
-      <c r="C97" s="229">
+      <c r="C113" s="229">
         <v>3289</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="227" t="s">
+      <c r="D113" s="229">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="227" t="s">
         <v>378</v>
       </c>
-      <c r="B98" s="228" t="s">
-        <v>379</v>
-      </c>
-      <c r="C98" s="229">
+      <c r="B114" s="228" t="s">
+        <v>391</v>
+      </c>
+      <c r="C114" s="229">
         <f>PRODUCT(1.67,3109.183856)</f>
         <v>5192.33703952</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="227" t="s">
+      <c r="D114" s="229">
+        <f>PRODUCT(1.21,3109.183856)</f>
+        <v>3762.1124657599998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="227" t="s">
         <v>371</v>
       </c>
-      <c r="B99" s="228" t="s">
+      <c r="B115" s="228" t="s">
         <v>373</v>
       </c>
-      <c r="C99" s="229">
+      <c r="C115" s="229">
         <v>3307</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="150" t="s">
+      <c r="D115" s="229">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="150" t="s">
         <v>372</v>
       </c>
-      <c r="B100" s="93"/>
-      <c r="C100" s="94">
-        <f>(SUM(C101:C103))</f>
+      <c r="B116" s="93"/>
+      <c r="C116" s="94">
+        <f>(SUM(C117:C119))</f>
         <v>3754</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="151"/>
-      <c r="B101" s="98" t="s">
+      <c r="D116" s="94">
+        <f>(SUM(D117:D119))</f>
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="151"/>
+      <c r="B117" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="C101" s="102">
+      <c r="C117" s="102">
         <v>3635</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="151"/>
-      <c r="B102" s="98" t="s">
+      <c r="D117" s="102">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="151"/>
+      <c r="B118" s="98" t="s">
         <v>340</v>
       </c>
-      <c r="C102" s="102">
+      <c r="C118" s="102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="152"/>
-      <c r="B103" s="103" t="s">
+      <c r="D118" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="152"/>
+      <c r="B119" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="C103" s="104">
+      <c r="C119" s="104">
+        <v>117</v>
+      </c>
+      <c r="D119" s="104">
         <v>117</v>
       </c>
     </row>
@@ -10602,7 +10932,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10617,7 +10947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="236" t="s">
         <v>365</v>
       </c>
       <c r="B1" s="93"/>
@@ -10688,7 +11018,7 @@
         <v>363</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="248">
+      <c r="C5" s="238">
         <f>514.755 + 764</f>
         <v>1278.7550000000001</v>
       </c>
@@ -10787,7 +11117,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="E10" s="96"/>
-      <c r="F10" s="249">
+      <c r="F10" s="239">
         <f t="shared" ref="F10" si="1">SUM(F3:F9)</f>
         <v>0.54631678705370501</v>
       </c>
@@ -10795,10 +11125,10 @@
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K13" s="227" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L13" s="229" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10816,20 +11146,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="236" t="s">
         <v>366</v>
       </c>
-      <c r="B15" s="247">
+      <c r="B15" s="237">
         <v>43830</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I15" s="227" t="s">
         <v>378</v>
       </c>
       <c r="J15" s="228" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K15" s="229">
         <f>PRODUCT(1.67,3109.183856)</f>
@@ -10936,7 +11266,7 @@
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="151" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="6">
         <f>PRODUCT(B16,(1+PRODUCT((1-B19),B17)))</f>
@@ -10959,7 +11289,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="152" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="96">
         <f>PRODUCT(B16,(1+PRODUCT((1-B19),B18)))</f>
@@ -11362,14 +11692,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="242" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="242"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="244"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="504" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B1F9FEF-DC1D-4158-A543-941EB95F38D3}"/>
+  <xr:revisionPtr revIDLastSave="589" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4863F60B-ED1A-4FA3-A4D6-DA4A967A53EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Analysis " sheetId="9" r:id="rId4"/>
     <sheet name="Bottom up Beta" sheetId="11" r:id="rId5"/>
     <sheet name="FCFE Computation" sheetId="7" r:id="rId6"/>
-    <sheet name="Forecasts " sheetId="12" r:id="rId7"/>
+    <sheet name="Ratios " sheetId="13" r:id="rId7"/>
+    <sheet name="Forecasts " sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="368">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1143,6 +1144,18 @@
   </si>
   <si>
     <t>** Respectively from cash flows statement: bond issues and repayments of borrowing</t>
+  </si>
+  <si>
+    <t>Free Cash Flow To Equity: FCFF</t>
+  </si>
+  <si>
+    <t>Ebit Net of taxes</t>
+  </si>
+  <si>
+    <t>Marginal taxes (27,5%)</t>
+  </si>
+  <si>
+    <t>FCFF</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2085,39 +2098,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2366,24 +2353,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2405,16 +2374,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -3353,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED367D94-1688-46C5-820A-0D435FF36E90}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:I29"/>
+    <sheetView topLeftCell="A18" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,14 +3374,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="243"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="270"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="64" t="s">
@@ -5778,15 +5780,15 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="238" t="s">
+      <c r="A105" s="265" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="239"/>
-      <c r="C105" s="239"/>
-      <c r="D105" s="239"/>
-      <c r="E105" s="239"/>
-      <c r="F105" s="239"/>
-      <c r="G105" s="240"/>
+      <c r="B105" s="266"/>
+      <c r="C105" s="266"/>
+      <c r="D105" s="266"/>
+      <c r="E105" s="266"/>
+      <c r="F105" s="266"/>
+      <c r="G105" s="267"/>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6057,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E372618-CC6C-4EA7-A7A1-B3CBE15674E2}">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9047,7 +9049,7 @@
       <c r="H2" s="196">
         <v>42369</v>
       </c>
-      <c r="I2" s="245">
+      <c r="I2" s="239">
         <v>42004</v>
       </c>
       <c r="K2" s="184"/>
@@ -9418,7 +9420,7 @@
       <c r="H12" s="196">
         <v>42369</v>
       </c>
-      <c r="I12" s="245">
+      <c r="I12" s="239">
         <v>42004</v>
       </c>
       <c r="J12" s="6"/>
@@ -9920,20 +9922,20 @@
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="259">
+      <c r="C27" s="253">
         <v>43830</v>
       </c>
-      <c r="D27" s="259">
+      <c r="D27" s="253">
         <v>43465</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="259">
+      <c r="F27" s="253">
         <v>43100</v>
       </c>
-      <c r="G27" s="259">
+      <c r="G27" s="253">
         <v>42735</v>
       </c>
-      <c r="H27" s="259">
+      <c r="H27" s="253">
         <v>42369</v>
       </c>
       <c r="I27" s="6"/>
@@ -10222,7 +10224,7 @@
         <f t="shared" ref="D47:H47" si="13">D41+D44 - (D42+D45)</f>
         <v>37</v>
       </c>
-      <c r="E47" s="271">
+      <c r="E47" s="263">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -10573,7 +10575,7 @@
       <c r="I71" s="228">
         <v>0.87311649000000002</v>
       </c>
-      <c r="J71" s="270"/>
+      <c r="J71" s="262"/>
       <c r="K71" s="75"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -11326,10 +11328,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1BB66B-C038-41A3-A377-50E94E5A5614}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11368,83 +11370,83 @@
         <v>335</v>
       </c>
       <c r="B2" s="67"/>
-      <c r="C2" s="249"/>
+      <c r="C2" s="243"/>
       <c r="D2" s="36"/>
-      <c r="E2" s="249"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="279" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="257"/>
-      <c r="I2" s="258"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="281"/>
       <c r="M2" s="182" t="s">
         <v>348</v>
       </c>
       <c r="N2" s="67"/>
-      <c r="O2" s="260"/>
+      <c r="O2" s="254"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="261"/>
+      <c r="Q2" s="255"/>
       <c r="R2" s="36"/>
-      <c r="S2" s="256" t="s">
+      <c r="S2" s="250" t="s">
         <v>347</v>
       </c>
-      <c r="T2" s="257"/>
-      <c r="U2" s="258"/>
+      <c r="T2" s="251"/>
+      <c r="U2" s="252"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="266"/>
+      <c r="A3" s="259"/>
       <c r="B3" s="177"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="247">
+      <c r="D3" s="273">
         <v>43830</v>
       </c>
-      <c r="E3" s="248">
+      <c r="E3" s="274">
         <v>43465</v>
       </c>
       <c r="F3" s="177"/>
-      <c r="G3" s="254">
+      <c r="G3" s="274">
         <v>43100</v>
       </c>
-      <c r="H3" s="254">
+      <c r="H3" s="274">
         <v>42735</v>
       </c>
-      <c r="I3" s="265">
+      <c r="I3" s="282">
         <v>42369</v>
       </c>
-      <c r="M3" s="250"/>
+      <c r="M3" s="244"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177" t="s">
         <v>330</v>
       </c>
-      <c r="P3" s="247">
+      <c r="P3" s="241">
         <v>43830</v>
       </c>
-      <c r="Q3" s="248">
+      <c r="Q3" s="242">
         <v>43465</v>
       </c>
       <c r="R3" s="177"/>
-      <c r="S3" s="254">
+      <c r="S3" s="248">
         <v>43100</v>
       </c>
-      <c r="T3" s="254">
+      <c r="T3" s="248">
         <v>42735</v>
       </c>
-      <c r="U3" s="255" t="s">
+      <c r="U3" s="249" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="260" t="s">
         <v>349</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="6">
+      <c r="C4" s="137"/>
+      <c r="D4" s="78">
         <v>389</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="78">
         <v>344</v>
       </c>
       <c r="F4" s="6"/>
@@ -11457,7 +11459,7 @@
       <c r="I4" s="82">
         <v>73</v>
       </c>
-      <c r="M4" s="251" t="s">
+      <c r="M4" s="245" t="s">
         <v>336</v>
       </c>
       <c r="N4" s="2"/>
@@ -11473,16 +11475,16 @@
       <c r="X4" s="33"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="267"/>
+      <c r="A5" s="260"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="177"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="275"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="2"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="45"/>
-      <c r="M5" s="251"/>
+      <c r="M5" s="245"/>
       <c r="N5" s="2"/>
       <c r="O5" s="177"/>
       <c r="P5" s="178"/>
@@ -11496,33 +11498,33 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="260" t="s">
         <v>338</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="246">
+      <c r="C6" s="137"/>
+      <c r="D6" s="275">
         <f>SUM(D7:D9)</f>
         <v>511</v>
       </c>
-      <c r="E6" s="246">
+      <c r="E6" s="275">
         <f t="shared" ref="E6:I6" si="0">SUM(E7:E9)</f>
         <v>623</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246">
+      <c r="F6" s="240"/>
+      <c r="G6" s="275">
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="H6" s="246">
+      <c r="H6" s="275">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="I6" s="246">
+      <c r="I6" s="283">
         <f t="shared" si="0"/>
         <v>754</v>
       </c>
-      <c r="M6" s="251" t="s">
+      <c r="M6" s="245" t="s">
         <v>338</v>
       </c>
       <c r="N6" s="2"/>
@@ -11538,15 +11540,15 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="267" t="s">
+      <c r="A7" s="260" t="s">
         <v>333</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="246">
+      <c r="C7" s="60"/>
+      <c r="D7" s="275">
         <v>123</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="137">
         <v>91</v>
       </c>
       <c r="F7" s="2"/>
@@ -11559,7 +11561,7 @@
       <c r="I7" s="94">
         <v>54</v>
       </c>
-      <c r="M7" s="251" t="s">
+      <c r="M7" s="245" t="s">
         <v>333</v>
       </c>
       <c r="N7" s="2"/>
@@ -11569,21 +11571,21 @@
       <c r="R7" s="179"/>
       <c r="S7" s="60"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="252"/>
+      <c r="U7" s="246"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="260" t="s">
         <v>339</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="246">
+      <c r="C8" s="137"/>
+      <c r="D8" s="275">
         <v>379</v>
       </c>
-      <c r="E8" s="177">
+      <c r="E8" s="137">
         <v>372</v>
       </c>
       <c r="F8" s="2"/>
@@ -11596,7 +11598,7 @@
       <c r="I8" s="94">
         <v>341</v>
       </c>
-      <c r="M8" s="251" t="s">
+      <c r="M8" s="245" t="s">
         <v>339</v>
       </c>
       <c r="N8" s="2"/>
@@ -11612,15 +11614,15 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="267" t="s">
+      <c r="A9" s="260" t="s">
         <v>340</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="246">
+      <c r="C9" s="137"/>
+      <c r="D9" s="275">
         <v>9</v>
       </c>
-      <c r="E9" s="177">
+      <c r="E9" s="137">
         <v>160</v>
       </c>
       <c r="F9" s="2"/>
@@ -11633,7 +11635,7 @@
       <c r="I9" s="94">
         <v>359</v>
       </c>
-      <c r="M9" s="251" t="s">
+      <c r="M9" s="245" t="s">
         <v>340</v>
       </c>
       <c r="N9" s="2"/>
@@ -11649,16 +11651,16 @@
       <c r="X9" s="179"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="268"/>
+      <c r="A10" s="261"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="138"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="138"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="253"/>
-      <c r="M10" s="250"/>
+      <c r="I10" s="247"/>
+      <c r="M10" s="244"/>
       <c r="N10" s="2"/>
       <c r="O10" s="138"/>
       <c r="P10" s="178"/>
@@ -11666,39 +11668,39 @@
       <c r="R10" s="138"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
-      <c r="U10" s="253"/>
+      <c r="U10" s="247"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="260" t="s">
         <v>358</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="262">
+      <c r="C11" s="78"/>
+      <c r="D11" s="276">
         <f>SUM(D12:D13)</f>
         <v>627</v>
       </c>
-      <c r="E11" s="262">
+      <c r="E11" s="276">
         <f t="shared" ref="E11:I11" si="1">SUM(E12:E13)</f>
         <v>500</v>
       </c>
-      <c r="F11" s="262"/>
-      <c r="G11" s="262">
+      <c r="F11" s="256"/>
+      <c r="G11" s="276">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="H11" s="262">
+      <c r="H11" s="276">
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="I11" s="262">
+      <c r="I11" s="284">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="M11" s="251" t="s">
+      <c r="M11" s="245" t="s">
         <v>341</v>
       </c>
       <c r="N11" s="6"/>
@@ -11714,15 +11716,15 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="267" t="s">
+      <c r="A12" s="260" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="269">
+      <c r="C12" s="78"/>
+      <c r="D12" s="277">
         <v>380</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="15">
         <v>305</v>
       </c>
       <c r="F12" s="6"/>
@@ -11735,7 +11737,7 @@
       <c r="I12" s="82">
         <v>253</v>
       </c>
-      <c r="M12" s="251" t="s">
+      <c r="M12" s="245" t="s">
         <v>76</v>
       </c>
       <c r="N12" s="6"/>
@@ -11751,15 +11753,15 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="267" t="s">
+      <c r="A13" s="260" t="s">
         <v>355</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="269">
+      <c r="C13" s="78"/>
+      <c r="D13" s="277">
         <v>247</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="15">
         <v>195</v>
       </c>
       <c r="F13" s="6"/>
@@ -11772,7 +11774,7 @@
       <c r="I13" s="82">
         <v>88</v>
       </c>
-      <c r="M13" s="251" t="s">
+      <c r="M13" s="245" t="s">
         <v>355</v>
       </c>
       <c r="N13" s="6"/>
@@ -11788,16 +11790,16 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="267"/>
+      <c r="A14" s="260"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="6"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78"/>
       <c r="I14" s="82"/>
-      <c r="M14" s="251"/>
+      <c r="M14" s="245"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -11811,15 +11813,15 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="267" t="s">
+      <c r="A15" s="260" t="s">
         <v>356</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="262">
+      <c r="C15" s="78"/>
+      <c r="D15" s="276">
         <v>0</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="78">
         <v>118</v>
       </c>
       <c r="F15" s="6"/>
@@ -11832,7 +11834,7 @@
       <c r="I15" s="82">
         <v>-122</v>
       </c>
-      <c r="M15" s="251" t="s">
+      <c r="M15" s="245" t="s">
         <v>342</v>
       </c>
       <c r="N15" s="6"/>
@@ -11850,9 +11852,9 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="203"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="6"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78"/>
@@ -11872,21 +11874,21 @@
         <v>362</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="262">
+      <c r="C17" s="78"/>
+      <c r="D17" s="276">
         <f>D18-D19</f>
         <v>-166</v>
       </c>
-      <c r="E17" s="262">
+      <c r="E17" s="276">
         <f t="shared" ref="E17:H17" si="2">E18-E19</f>
         <v>-453</v>
       </c>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262">
+      <c r="F17" s="256"/>
+      <c r="G17" s="276">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="H17" s="262">
+      <c r="H17" s="276">
         <f t="shared" si="2"/>
         <v>-467</v>
       </c>
@@ -11908,11 +11910,11 @@
         <v>345</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="262">
+      <c r="C18" s="78"/>
+      <c r="D18" s="276">
         <v>491</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="78">
         <v>68</v>
       </c>
       <c r="F18" s="6"/>
@@ -11940,11 +11942,11 @@
         <v>346</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="262">
+      <c r="C19" s="78"/>
+      <c r="D19" s="276">
         <v>657</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="78">
         <v>521</v>
       </c>
       <c r="F19" s="6"/>
@@ -11970,13 +11972,13 @@
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="203"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="6"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="276"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="82"/>
       <c r="M20" s="131"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -11988,32 +11990,32 @@
       <c r="U20" s="82"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="285" t="s">
         <v>343</v>
       </c>
       <c r="B21" s="59"/>
-      <c r="C21" s="59">
-        <f>D21-E21</f>
-        <v>93</v>
-      </c>
-      <c r="D21" s="274">
+      <c r="C21" s="175">
+        <f>(D21-E21)/E21</f>
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="D21" s="264">
         <f>D4+D6-D11+D17</f>
         <v>107</v>
       </c>
-      <c r="E21" s="274">
+      <c r="E21" s="264">
         <f t="shared" ref="E21:H21" si="3">E4+E6-E11+E17</f>
         <v>14</v>
       </c>
-      <c r="F21" s="274"/>
-      <c r="G21" s="274">
+      <c r="F21" s="278"/>
+      <c r="G21" s="264">
         <f t="shared" si="3"/>
         <v>413</v>
       </c>
-      <c r="H21" s="274">
+      <c r="H21" s="264">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="150"/>
       <c r="M21" s="131" t="s">
         <v>343</v>
       </c>
@@ -12027,15 +12029,15 @@
       <c r="U21" s="82"/>
     </row>
     <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="244"/>
+      <c r="A22" s="238"/>
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
-      <c r="D22" s="263"/>
+      <c r="D22" s="257"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
-      <c r="G22" s="272"/>
-      <c r="H22" s="272"/>
-      <c r="I22" s="273"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
       <c r="M22" s="132"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
@@ -12055,19 +12057,19 @@
       <c r="A26" t="s">
         <v>351</v>
       </c>
-      <c r="D26" s="264">
+      <c r="D26" s="258">
         <v>43830</v>
       </c>
-      <c r="E26" s="264">
+      <c r="E26" s="258">
         <v>43465</v>
       </c>
-      <c r="G26" s="264">
+      <c r="G26" s="258">
         <v>43100</v>
       </c>
-      <c r="H26" s="264">
+      <c r="H26" s="258">
         <v>42735</v>
       </c>
-      <c r="I26" s="264">
+      <c r="I26" s="258">
         <v>42369</v>
       </c>
     </row>
@@ -12203,7 +12205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="14:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N33" s="100" t="s">
         <v>126</v>
       </c>
@@ -12231,7 +12233,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="34" spans="14:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="N34" s="95" t="s">
         <v>129</v>
       </c>
@@ -12264,7 +12266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="14:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N35" s="100" t="s">
         <v>42</v>
       </c>
@@ -12292,7 +12294,20 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="14:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="181" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="286" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" s="287"/>
+      <c r="I36" s="288"/>
       <c r="N36" s="100" t="s">
         <v>127</v>
       </c>
@@ -12320,7 +12335,28 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="37" spans="14:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="272"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" s="176">
+        <v>43830</v>
+      </c>
+      <c r="E37" s="176">
+        <v>43465</v>
+      </c>
+      <c r="F37" s="271"/>
+      <c r="G37" s="176">
+        <v>43100</v>
+      </c>
+      <c r="H37" s="176">
+        <v>42735</v>
+      </c>
+      <c r="I37" s="239">
+        <v>42369</v>
+      </c>
       <c r="N37" s="99" t="s">
         <v>128</v>
       </c>
@@ -12352,6 +12388,355 @@
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="203" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78">
+        <v>687</v>
+      </c>
+      <c r="E38" s="78">
+        <v>588</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="78">
+        <v>710</v>
+      </c>
+      <c r="H38" s="78">
+        <v>443</v>
+      </c>
+      <c r="I38" s="82">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="203" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78">
+        <f>PRODUCT(D38,0.275)</f>
+        <v>188.92500000000001</v>
+      </c>
+      <c r="E39" s="78">
+        <f t="shared" ref="E39:I39" si="9">PRODUCT(E38,0.275)</f>
+        <v>161.70000000000002</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="78">
+        <f t="shared" si="9"/>
+        <v>195.25000000000003</v>
+      </c>
+      <c r="H39" s="78">
+        <f t="shared" si="9"/>
+        <v>121.825</v>
+      </c>
+      <c r="I39" s="82">
+        <f t="shared" si="9"/>
+        <v>59.125000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="203" t="s">
+        <v>365</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78">
+        <f>D38-D39</f>
+        <v>498.07499999999999</v>
+      </c>
+      <c r="E40" s="78">
+        <f t="shared" ref="E40:H40" si="10">E38-E39</f>
+        <v>426.29999999999995</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="78">
+        <f t="shared" si="10"/>
+        <v>514.75</v>
+      </c>
+      <c r="H40" s="78">
+        <f t="shared" si="10"/>
+        <v>321.17500000000001</v>
+      </c>
+      <c r="I40" s="82">
+        <f>I38-I39</f>
+        <v>155.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="203"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="203" t="s">
+        <v>338</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78">
+        <v>511</v>
+      </c>
+      <c r="E42" s="78">
+        <v>623</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="78">
+        <v>444</v>
+      </c>
+      <c r="H42" s="78">
+        <v>648</v>
+      </c>
+      <c r="I42" s="82">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="203" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78">
+        <v>123</v>
+      </c>
+      <c r="E43" s="78">
+        <v>91</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="78">
+        <v>72</v>
+      </c>
+      <c r="H43" s="78">
+        <v>55</v>
+      </c>
+      <c r="I43" s="82">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="203" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78">
+        <v>379</v>
+      </c>
+      <c r="E44" s="78">
+        <v>372</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="78">
+        <v>338</v>
+      </c>
+      <c r="H44" s="78">
+        <v>348</v>
+      </c>
+      <c r="I44" s="82">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="203" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78">
+        <v>9</v>
+      </c>
+      <c r="E45" s="78">
+        <v>160</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="78">
+        <v>34</v>
+      </c>
+      <c r="H45" s="78">
+        <v>245</v>
+      </c>
+      <c r="I45" s="82">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="203"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="82"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="203" t="s">
+        <v>358</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78">
+        <v>627</v>
+      </c>
+      <c r="E47" s="78">
+        <v>500</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="78">
+        <v>454</v>
+      </c>
+      <c r="H47" s="78">
+        <v>382</v>
+      </c>
+      <c r="I47" s="82">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="203" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78">
+        <v>380</v>
+      </c>
+      <c r="E48" s="78">
+        <v>305</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="78">
+        <v>306</v>
+      </c>
+      <c r="H48" s="78">
+        <v>259</v>
+      </c>
+      <c r="I48" s="82">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="203" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78">
+        <v>247</v>
+      </c>
+      <c r="E49" s="78">
+        <v>195</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="78">
+        <v>148</v>
+      </c>
+      <c r="H49" s="78">
+        <v>123</v>
+      </c>
+      <c r="I49" s="82">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="203"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="82"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="203" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78">
+        <v>0</v>
+      </c>
+      <c r="E51" s="78">
+        <v>118</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="78">
+        <v>-159</v>
+      </c>
+      <c r="H51" s="78">
+        <v>97</v>
+      </c>
+      <c r="I51" s="82">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="203"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="82"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="285" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" s="289"/>
+      <c r="C53" s="289">
+        <f>(D53-E53)/ E53</f>
+        <v>-0.11413169487595622</v>
+      </c>
+      <c r="D53" s="59">
+        <f>D40 + D42 - D47 - D51</f>
+        <v>382.07500000000005</v>
+      </c>
+      <c r="E53" s="59">
+        <f t="shared" ref="E53:I53" si="11">E40 + E42 - E47 - E51</f>
+        <v>431.29999999999995</v>
+      </c>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59">
+        <f t="shared" si="11"/>
+        <v>663.75</v>
+      </c>
+      <c r="H53" s="59">
+        <f t="shared" si="11"/>
+        <v>490.17499999999995</v>
+      </c>
+      <c r="I53" s="59">
+        <f t="shared" si="11"/>
+        <v>690.875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="238"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12360,6 +12745,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CBDA12-BA18-4F58-B4E9-078BBF87197E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F796E7-F67A-4DAF-82A4-1182099AF78F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Project/Work in progress/Simone's part.xlsx
+++ b/Project/Work in progress/Simone's part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\OneDrive\Desktop\Corporate-project-\Project\Work in progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="589" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4863F60B-ED1A-4FA3-A4D6-DA4A967A53EA}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="13_ncr:1_{D0D5034D-52DF-4A1C-9555-C6ED2DB183B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1107E662-435E-4A63-A9BA-2A7B445A6ECF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IS" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="379">
   <si>
     <t>Ricavi</t>
   </si>
@@ -1156,6 +1156,39 @@
   </si>
   <si>
     <t>FCFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures of profitability </t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>Pre tax ROA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After tax roc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre tax roc </t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short term liquidity risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnover ratios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures of risk :Financial ratios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long term solvency and default risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt ratios </t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2137,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2380,24 +2413,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2417,6 +2432,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
@@ -2427,8 +2465,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -2811,7 +2849,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>TO DO:</a:t>
+            <a:t>TO DO LIST:</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
@@ -2824,7 +2862,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
-            <a:t>1) REORGANIZE </a:t>
+            <a:t>1) REORGANIZE  (Done, we did not encounter differences) </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2833,7 +2871,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
-            <a:t>2) HIGHLIGHT ADJUSTMENTS ACCORDING TO DAMODARAN </a:t>
+            <a:t>2) HIGHLIGHT ADJUSTMENTS ACCORDING TO DAMODARAN (We have decided to maintain same results due to the fact balances had already comprehended  adjustments)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2842,7 +2880,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
-            <a:t>3) COMPUTE NET CAPEX AND CHANGES IN WC </a:t>
+            <a:t>3) COMPUTE NET CAPEX AND CHANGES IN WC  (Done )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2851,7 +2889,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
-            <a:t>4) TRY TO COMPUTE FCFE </a:t>
+            <a:t>4) TRY TO COMPUTE FCFE  (Done according to the simplest case) </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3087,6 +3125,1401 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A0B782-DE7D-4CCF-AB3E-2156DD009050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="746760" y="1874520"/>
+          <a:ext cx="3695700" cy="2491740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Return on assets: measures operating</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> efficiency in generating profits from its assets (prior effects of financing)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Ebit(1-t) / Total assets, where total assets is given by LHS  of BS (according to accounting rules) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>By separating effects of financing from operating effects we can get: NI + Int exp(1-t) / Tot assets </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Pre tax ROA: Ebit/tot assets . Useful measure if the firm is being evaluated for purchase by acquirer with different tax rate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CasellaDiTesto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC9FEDB-B1E5-448F-8837-4B6962BAF9F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="1821180"/>
+          <a:ext cx="4777740" cy="2567940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>More useful</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> measure of return, it relates operating income to the capital invested . After tax Roc: Ebit(1-t)/ Bv Debt + Bv equity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>When a substantial portion of liabilities is current this approach provide a better measure of the true return on capital employed (Infact denominator = Invested capital) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Alternative</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> ways: ROC based on average (between beginning Bv of capital and ending) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Roc based on beginning measure of capital</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Decomposition: of after tax ROC: Ebit(1-t)/Sales x Salex/BV of capital </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>That is to say: pre tax operating margin and capital turnover ratio . </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>A firm can arrive at a high ROC by either increasing its profit margin or efficiently using its capital to increase sales. </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB136B5-DE1A-45FD-8521-21ECA42EAD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247120" y="1844040"/>
+          <a:ext cx="5273040" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Examines profitability from the perspective of equity investors by relating profits to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> equity investors to the book value of equity investment. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Roe = NI/ Book value of common equity  Since preferred stockholders have a different type of claim on the firm than common stockholders it should be measured with NI after preferred stocks and book value of equity net of preferred stocks. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Determinants: it's affected by the financing mix the firm uses to fund its projects. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>In general, if a firm that borrows money to finance projects is able to earns an higher ROC than after tax interest rate it pays it will be able to increase ROE by borrowing. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>ROE = ROC + D/E (ROC - i(1-t)) where i = interest expense on debt/BV of debt and t marginal tax rate. **Remember that EBIT(1-t) is equal to NI + IE(1-t) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CasellaDiTesto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3233DD6C-5FFF-40E2-8E8F-3D38FAD6F2EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6682740" y="91440"/>
+          <a:ext cx="3329940" cy="1310640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>According to growth in EPS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> gt+1 = (Retained earnings t/NI t) * ROE t (return on equity on its projects, if supposed to maintain same ROE) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>If the firm is not allowe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>d to raise equity by issuing new shares: growth rate in EPS is the same than in NI </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CasellaDiTesto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42273881-DBDF-4D6D-810C-3A34910B7E0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="5250180"/>
+          <a:ext cx="3040380" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Financial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> statements have long been used as basis for estimating financial ratios that measure profitability risk and leverage. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Short term liquidity risk arises primarly from the need to finance current operations. To the extent that the firm has to pay suppliers before being paid, there is a cash shortfall that has to be met with short term borrowing. Financial ratios have been devised to keep track of the extent of the firm 's exposure to the risk that it will not be able to meet its short term obligations. </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CasellaDiTesto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC76582-C9F1-4174-A6D5-4628939B42F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6926580" y="5334000"/>
+          <a:ext cx="2941320" cy="2011680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Current</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> ratio: current assets (cash, inventory, receivable) over current liabilities (obligations due within next period) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>If &lt;1 it indicates that the firm has more obligations coming due in next years than assets it can convert in cash. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>There is a trade off beteen minimizing liquidity risk and tying up more cash in net working capital</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CasellaDiTesto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDD4B5E-9A03-4207-8BF6-774BB4E1A920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10485120" y="5334000"/>
+          <a:ext cx="3573780" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>It can be easily manipulated,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> furthermore current assets and current liabilities can change by an equal amount but the effect on current ratio will depend upon its level before tha change.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>A solution: quick ratio = Cash + marketable securities / current liabilities </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CasellaDiTesto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3945E4F7-0395-49A0-AB3F-CD78B729449D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1402080" y="7886700"/>
+          <a:ext cx="3268980" cy="1836420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>measure efficiency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> of working capital management by looking at the relationship of accounts and inventory to sales and to the cost of goods sold</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Accounts receivable turnover: sales/avg accounts receivable </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Inventory turnover: cost of goods sold /average inventory </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Measure the speed with which firm turns accounts receivable into cash or inventory into sales </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CasellaDiTesto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C504A6D-2219-4662-B35F-6CE9B5463EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5913120" y="7886700"/>
+          <a:ext cx="3360420" cy="1813560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>In terms of numbers of days outstanding: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Days res outstanding  =365/ accounts</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> rec turnover</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Days inventory held =  365/ inventory turnover </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>The same for accounts payable turnover: Purchases/avg accounts payable</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Combining we get required financing period or (CCC) 1)+ 2) -3) the greater the period the greater short term liquidity risk  </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CasellaDiTesto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA37A14-2CA8-454C-B1F0-934B76466136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615440" y="10347960"/>
+          <a:ext cx="3413760" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Measures of long term solvency attempt to examine a firm's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> capacity to meet interest and principal payments in the long term. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Interest coverage ratio: Ebit/interest expenses </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Capacity of firm to meet interest payments from pre-debt and pre tax earnings. The higher the more secure is the firm to make interest payments from earnings. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>EBIT is volatile, can drop if economy enters a recession: two firms can have same ratio but be viewed differently in terms of risk. </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CasellaDiTesto 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254ACA42-FB26-4695-8D09-6F374DBFF07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6080760" y="10431780"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CasellaDiTesto 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F870FD8-9F61-4B69-B2A9-BE8ECD55549E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5928360" y="10340340"/>
+          <a:ext cx="4076700" cy="2164080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>It can be extended in order to cover other fixed obligations such as lease payments:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Fixed charges coverage ratio = EBIT + lease exp /</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> fixed charges</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>It can be restated in terms of cash flows: EBITDA / cash fixed charges</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>In order to consider capex,(a cash flow needed to be considered) if firms want to maintain growth: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Operating cash flows to capex = Cash flows from operations /Capex</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>where cash flow from operations = EBIT(1-t) - changes in WC </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CasellaDiTesto 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29533C9A-5E06-4630-AD73-0089A3A41F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="12923520"/>
+          <a:ext cx="4853940" cy="2308860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Interest coverage ratio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> measure the capacity of firm to meet interest payments but not whether it can pay back the principal of outstanding debt. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Debt ratios attempt to do this: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Debt to capital ratio: debt/ debt + equity ; measures debt as proprortion of total capital</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Debt to equity ratio: debt / equity ; measures debt as proportion of equity in the firm </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>It can be easily written as : Debt to capital / (1- debt to capital) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>They</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> can be estendend in order to include other sources of financing such as preferred stock </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CasellaDiTesto 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D75DC95-A2F9-4383-B3CB-578E94AB2D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6446520" y="12870180"/>
+          <a:ext cx="5966460" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Variants: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>long</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> term debt to capital ratio (rationale: short term debt is transitory and will not affect long term solvency) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>long term debt to equity ratio </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Given the willingness of many firms to use short term debt for financing long term projects these variants can provide a misleading picture of the firm's financial leverage risk. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Second variant: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Market value debt to capital ratio (we use mv of debt and equity instead of bv) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>this to reflect the fact that some firms have a significantly greater capacity to borrow than their book values. </a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3355,8 +4788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED367D94-1688-46C5-820A-0D435FF36E90}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A61" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3374,14 +4807,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="287" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="270"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="289"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="64" t="s">
@@ -5780,15 +7213,15 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="105" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="265" t="s">
+      <c r="A105" s="284" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="266"/>
-      <c r="C105" s="266"/>
-      <c r="D105" s="266"/>
-      <c r="E105" s="266"/>
-      <c r="F105" s="266"/>
-      <c r="G105" s="267"/>
+      <c r="B105" s="285"/>
+      <c r="C105" s="285"/>
+      <c r="D105" s="285"/>
+      <c r="E105" s="285"/>
+      <c r="F105" s="285"/>
+      <c r="G105" s="286"/>
     </row>
     <row r="106" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6059,8 +7492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E372618-CC6C-4EA7-A7A1-B3CBE15674E2}">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:I41"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8973,7 +10406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC5EB-3EA3-41FC-BD61-B127DEE946BB}">
   <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
@@ -11330,7 +12763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1BB66B-C038-41A3-A377-50E94E5A5614}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -11374,11 +12807,11 @@
       <c r="D2" s="36"/>
       <c r="E2" s="243"/>
       <c r="F2" s="36"/>
-      <c r="G2" s="279" t="s">
+      <c r="G2" s="273" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="280"/>
-      <c r="I2" s="281"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="275"/>
       <c r="M2" s="182" t="s">
         <v>348</v>
       </c>
@@ -11399,20 +12832,20 @@
       <c r="C3" s="137" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="273">
+      <c r="D3" s="267">
         <v>43830</v>
       </c>
-      <c r="E3" s="274">
+      <c r="E3" s="268">
         <v>43465</v>
       </c>
       <c r="F3" s="177"/>
-      <c r="G3" s="274">
+      <c r="G3" s="268">
         <v>43100</v>
       </c>
-      <c r="H3" s="274">
+      <c r="H3" s="268">
         <v>42735</v>
       </c>
-      <c r="I3" s="282">
+      <c r="I3" s="276">
         <v>42369</v>
       </c>
       <c r="M3" s="244"/>
@@ -11478,7 +12911,7 @@
       <c r="A5" s="260"/>
       <c r="B5" s="2"/>
       <c r="C5" s="137"/>
-      <c r="D5" s="275"/>
+      <c r="D5" s="269"/>
       <c r="E5" s="137"/>
       <c r="F5" s="2"/>
       <c r="G5" s="15"/>
@@ -11503,24 +12936,24 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="137"/>
-      <c r="D6" s="275">
+      <c r="D6" s="269">
         <f>SUM(D7:D9)</f>
         <v>511</v>
       </c>
-      <c r="E6" s="275">
+      <c r="E6" s="269">
         <f t="shared" ref="E6:I6" si="0">SUM(E7:E9)</f>
         <v>623</v>
       </c>
       <c r="F6" s="240"/>
-      <c r="G6" s="275">
+      <c r="G6" s="269">
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="H6" s="275">
+      <c r="H6" s="269">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="I6" s="283">
+      <c r="I6" s="277">
         <f t="shared" si="0"/>
         <v>754</v>
       </c>
@@ -11545,7 +12978,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="60"/>
-      <c r="D7" s="275">
+      <c r="D7" s="269">
         <v>123</v>
       </c>
       <c r="E7" s="137">
@@ -11582,7 +13015,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="137"/>
-      <c r="D8" s="275">
+      <c r="D8" s="269">
         <v>379</v>
       </c>
       <c r="E8" s="137">
@@ -11619,7 +13052,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="137"/>
-      <c r="D9" s="275">
+      <c r="D9" s="269">
         <v>9</v>
       </c>
       <c r="E9" s="137">
@@ -11654,7 +13087,7 @@
       <c r="A10" s="261"/>
       <c r="B10" s="2"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="275"/>
+      <c r="D10" s="269"/>
       <c r="E10" s="18"/>
       <c r="F10" s="138"/>
       <c r="G10" s="18"/>
@@ -11679,24 +13112,24 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="78"/>
-      <c r="D11" s="276">
+      <c r="D11" s="270">
         <f>SUM(D12:D13)</f>
         <v>627</v>
       </c>
-      <c r="E11" s="276">
+      <c r="E11" s="270">
         <f t="shared" ref="E11:I11" si="1">SUM(E12:E13)</f>
         <v>500</v>
       </c>
       <c r="F11" s="256"/>
-      <c r="G11" s="276">
+      <c r="G11" s="270">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="H11" s="276">
+      <c r="H11" s="270">
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="I11" s="284">
+      <c r="I11" s="278">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
@@ -11721,7 +13154,7 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="78"/>
-      <c r="D12" s="277">
+      <c r="D12" s="271">
         <v>380</v>
       </c>
       <c r="E12" s="15">
@@ -11758,7 +13191,7 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="78"/>
-      <c r="D13" s="277">
+      <c r="D13" s="271">
         <v>247</v>
       </c>
       <c r="E13" s="15">
@@ -11793,7 +13226,7 @@
       <c r="A14" s="260"/>
       <c r="B14" s="6"/>
       <c r="C14" s="78"/>
-      <c r="D14" s="276"/>
+      <c r="D14" s="270"/>
       <c r="E14" s="78"/>
       <c r="F14" s="6"/>
       <c r="G14" s="78"/>
@@ -11818,7 +13251,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="78"/>
-      <c r="D15" s="276">
+      <c r="D15" s="270">
         <v>0</v>
       </c>
       <c r="E15" s="78">
@@ -11853,7 +13286,7 @@
       <c r="A16" s="203"/>
       <c r="B16" s="6"/>
       <c r="C16" s="78"/>
-      <c r="D16" s="276"/>
+      <c r="D16" s="270"/>
       <c r="E16" s="78"/>
       <c r="F16" s="6"/>
       <c r="G16" s="78"/>
@@ -11875,20 +13308,20 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="78"/>
-      <c r="D17" s="276">
+      <c r="D17" s="270">
         <f>D18-D19</f>
         <v>-166</v>
       </c>
-      <c r="E17" s="276">
+      <c r="E17" s="270">
         <f t="shared" ref="E17:H17" si="2">E18-E19</f>
         <v>-453</v>
       </c>
       <c r="F17" s="256"/>
-      <c r="G17" s="276">
+      <c r="G17" s="270">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="H17" s="276">
+      <c r="H17" s="270">
         <f t="shared" si="2"/>
         <v>-467</v>
       </c>
@@ -11911,7 +13344,7 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="78"/>
-      <c r="D18" s="276">
+      <c r="D18" s="270">
         <v>491</v>
       </c>
       <c r="E18" s="78">
@@ -11943,7 +13376,7 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="78"/>
-      <c r="D19" s="276">
+      <c r="D19" s="270">
         <v>657</v>
       </c>
       <c r="E19" s="78">
@@ -11973,7 +13406,7 @@
       <c r="A20" s="203"/>
       <c r="B20" s="6"/>
       <c r="C20" s="78"/>
-      <c r="D20" s="276"/>
+      <c r="D20" s="270"/>
       <c r="E20" s="78"/>
       <c r="F20" s="6"/>
       <c r="G20" s="78"/>
@@ -11990,7 +13423,7 @@
       <c r="U20" s="82"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="285" t="s">
+      <c r="A21" s="279" t="s">
         <v>343</v>
       </c>
       <c r="B21" s="59"/>
@@ -12006,7 +13439,7 @@
         <f t="shared" ref="E21:H21" si="3">E4+E6-E11+E17</f>
         <v>14</v>
       </c>
-      <c r="F21" s="278"/>
+      <c r="F21" s="272"/>
       <c r="G21" s="264">
         <f t="shared" si="3"/>
         <v>413</v>
@@ -12303,11 +13736,11 @@
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
-      <c r="G36" s="286" t="s">
+      <c r="G36" s="280" t="s">
         <v>347</v>
       </c>
-      <c r="H36" s="287"/>
-      <c r="I36" s="288"/>
+      <c r="H36" s="281"/>
+      <c r="I36" s="282"/>
       <c r="N36" s="100" t="s">
         <v>127</v>
       </c>
@@ -12336,7 +13769,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="272"/>
+      <c r="A37" s="266"/>
       <c r="B37" s="6"/>
       <c r="C37" s="78" t="s">
         <v>360</v>
@@ -12347,7 +13780,7 @@
       <c r="E37" s="176">
         <v>43465</v>
       </c>
-      <c r="F37" s="271"/>
+      <c r="F37" s="265"/>
       <c r="G37" s="176">
         <v>43100</v>
       </c>
@@ -12697,11 +14130,11 @@
       <c r="I52" s="82"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="285" t="s">
+      <c r="A53" s="279" t="s">
         <v>367</v>
       </c>
-      <c r="B53" s="289"/>
-      <c r="C53" s="289">
+      <c r="B53" s="283"/>
+      <c r="C53" s="283">
         <f>(D53-E53)/ E53</f>
         <v>-0.11413169487595622</v>
       </c>
@@ -12746,24 +14179,575 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CBDA12-BA18-4F58-B4E9-078BBF87197E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H59" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="290" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="291"/>
+      <c r="C1" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="I2" s="75">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="131" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>240.96174884000001</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>217.64286992000004</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>179.71082687679998</v>
+      </c>
+      <c r="H3" s="6">
+        <v>152.9718457152</v>
+      </c>
+      <c r="I3" s="75">
+        <v>127.346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="237" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292">
+        <v>0.61943894303341906</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="292">
+        <v>0.63268276139534896</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="292">
+        <v>0.61334753200273029</v>
+      </c>
+      <c r="H4" s="292">
+        <v>0.65936140394482756</v>
+      </c>
+      <c r="I4" s="293">
+        <v>1.7444657534246575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76">
+        <v>0.38056105696658094</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76">
+        <v>0.36731723860465104</v>
+      </c>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76">
+        <v>0.38665246799726971</v>
+      </c>
+      <c r="H5" s="76">
+        <v>0.34063859605517244</v>
+      </c>
+      <c r="I5" s="77">
+        <v>-0.74446575342465748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="294" t="s">
+        <v>368</v>
+      </c>
+      <c r="B10" s="294"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" t="s">
+        <v>371</v>
+      </c>
+      <c r="R11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="294" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="294"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F796E7-F67A-4DAF-82A4-1182099AF78F}">
-  <dimension ref="A1"/>
+  <dimension ref="P1:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="16:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="133" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="16:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P3" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31">
+        <v>2018</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="32">
+        <v>2023</v>
+      </c>
+      <c r="U3" s="205" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P4" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6">
+        <v>359</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="75">
+        <v>323</v>
+      </c>
+      <c r="U4" s="203"/>
+    </row>
+    <row r="5" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P5" s="131" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6">
+        <v>187</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="75">
+        <v>323</v>
+      </c>
+      <c r="U5" s="203"/>
+    </row>
+    <row r="6" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P6" s="131" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
+        <v>269</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="75">
+        <v>381</v>
+      </c>
+      <c r="U6" s="203"/>
+    </row>
+    <row r="7" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P7" s="131" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6">
+        <v>406</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="75">
+        <v>518</v>
+      </c>
+      <c r="U7" s="203"/>
+    </row>
+    <row r="8" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P8" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>-29</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="75">
+        <v>-14</v>
+      </c>
+      <c r="U8" s="203"/>
+    </row>
+    <row r="9" spans="16:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="132" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76">
+        <f>SUM(R4:R8)</f>
+        <v>1192</v>
+      </c>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77">
+        <f>SUM(T4:T8)</f>
+        <v>1531</v>
+      </c>
+      <c r="U9" s="204">
+        <f>(T9-R9)/R9</f>
+        <v>0.28439597315436244</v>
+      </c>
+      <c r="V9" s="202"/>
+    </row>
+    <row r="10" spans="16:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P11" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P12" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6">
+        <v>2607</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="T12" s="75">
+        <v>1459</v>
+      </c>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P13" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6">
+        <v>1378</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="T13" s="75">
+        <v>504</v>
+      </c>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P14" s="131"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="T14" s="75">
+        <v>943</v>
+      </c>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P15" s="131"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="T15" s="75">
+        <v>287</v>
+      </c>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="16:22" x14ac:dyDescent="0.3">
+      <c r="P16" s="131"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="T16" s="75">
+        <v>295</v>
+      </c>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P17" s="131"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="T17" s="75">
+        <v>402</v>
+      </c>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P18" s="131"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="T18" s="75">
+        <v>97</v>
+      </c>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="16:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="132" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76">
+        <f>SUM(R12:R13)</f>
+        <v>3985</v>
+      </c>
+      <c r="S19" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="T19" s="77">
+        <f>SUM(T12:T18)</f>
+        <v>3987</v>
+      </c>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="16:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P21" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="74"/>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P22" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P23" s="131" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="75">
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P24" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P25" s="131" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P26" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="75">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P27" s="131" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="75">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P28" s="131" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P29" s="131" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="75">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="30" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P30" s="131" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P31" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="134">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="16:21" x14ac:dyDescent="0.3">
+      <c r="P32" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" x14ac:dyDescent="0.3">
+      <c r="P33" s="131" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="75">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="135">
+        <v>3.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>